--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bupteducn-my.sharepoint.com/personal/lth9804_bupt_edu_cn/Documents/2023-北京邮电大学-博士/4 学术论文/20240409/Manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{047727EA-6B54-40F4-9891-E50CE13A9157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECAFD701-CFC8-4E33-A612-A90E17DD9BDF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB0A469-8789-4AE3-B0F4-A5E21ADDCAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2070" windowWidth="16800" windowHeight="12495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -213,18 +214,12 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -246,7 +241,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,55 +578,55 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7">
-        <v>20000</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="6">
+        <v>20000</v>
+      </c>
+      <c r="C2" s="6">
         <v>600</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>39.873684210526299</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>32.772927809146402</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>46.975296199109501</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>1.44138161378829</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>1.56901104069916</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <f>2*G2-H2</f>
         <v>1.31375218687742</v>
       </c>
-      <c r="J2" s="9">
-        <v>0.89478319429790198</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="J2" s="15">
+        <v>89.478319429790204</v>
+      </c>
+      <c r="K2" s="7">
         <v>48.599486266963801</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <f t="shared" ref="L2:L19" si="0">H2*K2/100</f>
         <v>0.76253130525173407</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="9">
         <v>1.03947783406351</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1">
         <v>20000</v>
       </c>
@@ -647,26 +648,26 @@
       <c r="H3" s="2">
         <v>1.76470507581142</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I19" si="1">2*G3-H3</f>
         <v>1.7699576007033202</v>
       </c>
-      <c r="J3" s="3">
-        <v>0.86289359066683402</v>
+      <c r="J3" s="16">
+        <v>86.289359066683403</v>
       </c>
       <c r="K3" s="2">
         <v>41.604007296320802</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="2">
         <f t="shared" si="0"/>
         <v>0.73418802849912668</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="10">
         <v>1.2010100056086299</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1">
         <v>20000</v>
       </c>
@@ -688,26 +689,26 @@
       <c r="H4" s="2">
         <v>2.5132915038617698</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>2.6846273452025899</v>
       </c>
-      <c r="J4" s="3">
-        <v>0.807248790242312</v>
+      <c r="J4" s="16">
+        <v>80.7248790242312</v>
       </c>
       <c r="K4" s="2">
         <v>32.1993970399541</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="2">
         <f t="shared" si="0"/>
         <v>0.80926471009988465</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="10">
         <v>0.60278327270575904</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1">
         <v>20000</v>
       </c>
@@ -729,26 +730,26 @@
       <c r="H5" s="2">
         <v>2.9851886242704002</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>1.9996042941777401</v>
       </c>
-      <c r="J5" s="3">
-        <v>0.70534737052636798</v>
+      <c r="J5" s="16">
+        <v>70.5347370526368</v>
       </c>
       <c r="K5" s="2">
         <v>27.8565818563014</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>0.83157151268488161</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="10">
         <v>0.36279512514637502</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1">
         <v>20000</v>
       </c>
@@ -770,26 +771,26 @@
       <c r="H6" s="2">
         <v>3.15494168372377</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>2.1937537032395698</v>
       </c>
-      <c r="J6" s="3">
-        <v>0.49721048242371402</v>
+      <c r="J6" s="16">
+        <v>49.721048242371403</v>
       </c>
       <c r="K6" s="2">
         <v>24.074620323261001</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="2">
         <f t="shared" si="0"/>
         <v>0.75954023177679564</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="10">
         <v>0.139336695268518</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4">
         <v>20000</v>
       </c>
@@ -811,69 +812,69 @@
       <c r="H7" s="5">
         <v>3.0477607740987298</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>2.2685191727287299</v>
       </c>
-      <c r="J7" s="6">
-        <v>0.25071672374516102</v>
+      <c r="J7" s="17">
+        <v>25.071672374516101</v>
       </c>
       <c r="K7" s="5">
         <v>23.028710028377098</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="2">
         <f t="shared" si="0"/>
         <v>0.70185999102581764</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <v>9.57674474658122E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7">
-        <v>20000</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="6">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="6">
         <v>600</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>54.941315789473599</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>9.7306334238210201</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>99.967450380260303</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>2.17260800031073</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>2.5</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>1.84521600062146</v>
       </c>
-      <c r="J8" s="9">
-        <v>0.47914442926862599</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="J8" s="15">
+        <v>47.914442926862598</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1">
         <v>20000</v>
       </c>
@@ -895,26 +896,26 @@
       <c r="H9" s="2">
         <v>2.5</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
         <v>2.1024802715100996</v>
       </c>
-      <c r="J9" s="3">
-        <v>0.40043541972007901</v>
+      <c r="J9" s="16">
+        <v>40.043541972007901</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="L9" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1">
         <v>20000</v>
       </c>
@@ -936,26 +937,26 @@
       <c r="H10" s="2">
         <v>2.5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>2.05190420415658</v>
       </c>
-      <c r="J10" s="3">
-        <v>0.32322021396399497</v>
+      <c r="J10" s="16">
+        <v>32.322021396399499</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="L10" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="12">
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1">
         <v>20000</v>
       </c>
@@ -977,26 +978,26 @@
       <c r="H11" s="2">
         <v>2.5</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>1.84520148317368</v>
       </c>
-      <c r="J11" s="3">
-        <v>0.24161344400151299</v>
+      <c r="J11" s="16">
+        <v>24.1613444001513</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
-      <c r="L11" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="12">
+      <c r="L11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1">
         <v>20000</v>
       </c>
@@ -1018,26 +1019,26 @@
       <c r="H12" s="2">
         <v>2.5</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>1.6981666121417804</v>
       </c>
-      <c r="J12" s="3">
-        <v>0.16191341108715601</v>
+      <c r="J12" s="16">
+        <v>16.191341108715601</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="L12" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
+      <c r="L12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4">
         <v>20000</v>
       </c>
@@ -1059,12 +1060,12 @@
       <c r="H13" s="5">
         <v>2.5</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
         <v>2.02288294048462</v>
       </c>
-      <c r="J13" s="6">
-        <v>8.0689505489516797E-2</v>
+      <c r="J13" s="17">
+        <v>8.0689505489516797</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
@@ -1073,12 +1074,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -1102,26 +1103,26 @@
       <c r="H14" s="2">
         <v>3.1503026503889902</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>0.88145186927071029</v>
       </c>
-      <c r="J14" s="3">
-        <v>0.80495899357769396</v>
+      <c r="J14" s="16">
+        <v>80.495899357769403</v>
       </c>
       <c r="K14" s="2">
         <v>30.6318515728635</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <f t="shared" si="0"/>
         <v>0.96499603196314043</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1">
         <v>20000</v>
       </c>
@@ -1143,26 +1144,26 @@
       <c r="H15" s="2">
         <v>3.23146166020301</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>0.85461110852016997</v>
       </c>
-      <c r="J15" s="3">
-        <v>0.78785456140350796</v>
+      <c r="J15" s="16">
+        <v>78.785456140350803</v>
       </c>
       <c r="K15" s="2">
         <v>30.0558426624827</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="2">
         <f t="shared" si="0"/>
         <v>0.97124303228906794</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="1">
         <v>20000</v>
       </c>
@@ -1184,26 +1185,26 @@
       <c r="H16" s="2">
         <v>3.0941887249547402</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="2">
         <f t="shared" si="1"/>
         <v>0.73957451043248001</v>
       </c>
-      <c r="J16" s="3">
-        <v>0.76710664552005003</v>
+      <c r="J16" s="16">
+        <v>76.710664552004999</v>
       </c>
       <c r="K16" s="2">
         <v>27.8144114130356</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="2">
         <f t="shared" si="0"/>
         <v>0.86063038185467189</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1">
         <v>20000</v>
       </c>
@@ -1225,26 +1226,26 @@
       <c r="H17" s="2">
         <v>3.22030859709001</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="2">
         <f t="shared" si="1"/>
         <v>1.2845855705663101</v>
       </c>
-      <c r="J17" s="3">
-        <v>0.73098400454260604</v>
+      <c r="J17" s="16">
+        <v>73.098400454260599</v>
       </c>
       <c r="K17" s="2">
         <v>26.141879741520398</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="2">
         <f t="shared" si="0"/>
         <v>0.841849200757113</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1">
         <v>20000</v>
       </c>
@@ -1266,26 +1267,26 @@
       <c r="H18" s="2">
         <v>3.26338263244544</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="2">
         <f t="shared" si="1"/>
         <v>0.85971949012578008</v>
       </c>
-      <c r="J18" s="3">
-        <v>0.64871743969298201</v>
+      <c r="J18" s="16">
+        <v>64.871743969298194</v>
       </c>
       <c r="K18" s="2">
         <v>31.304131909885299</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="2">
         <f t="shared" si="0"/>
         <v>1.0215736039850078</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4">
         <v>20000</v>
       </c>
@@ -1311,8 +1312,8 @@
         <f t="shared" si="1"/>
         <v>1.1878284143228601</v>
       </c>
-      <c r="J19" s="6">
-        <v>0.35984040805137801</v>
+      <c r="J19" s="17">
+        <v>35.984040805137802</v>
       </c>
       <c r="K19" s="5">
         <v>32.281844553785497</v>
@@ -1321,7 +1322,7 @@
         <f t="shared" si="0"/>
         <v>1.0066460763159164</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="11">
         <v>0</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097374EC-C4B1-4F43-B0F9-5C155F33FBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE27F94-36DC-4E6E-922E-D86A304672BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13290" yWindow="1200" windowWidth="17235" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -882,10 +882,18 @@
       <c r="E15" s="8">
         <v>4</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="F15" s="10">
+        <v>22.59</v>
+      </c>
+      <c r="G15" s="10">
+        <v>77.41</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2.0710839999999999</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2.3679000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
@@ -901,10 +909,18 @@
       <c r="E16" s="8">
         <v>4</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="F16" s="10">
+        <v>18.72</v>
+      </c>
+      <c r="G16" s="10">
+        <v>81.28</v>
+      </c>
+      <c r="H16" s="10">
+        <v>2.1577250000000001</v>
+      </c>
+      <c r="I16" s="10">
+        <v>2.8431199999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Java\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE27F94-36DC-4E6E-922E-D86A304672BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF8E19-1246-4D7D-A661-87F9FD71A19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13290" yWindow="1200" windowWidth="17235" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1668" yWindow="2532" windowWidth="14760" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
   <si>
     <t>负载</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,13 +92,17 @@
     <t>random</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -128,12 +133,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -157,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,29 +182,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,18 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="10.625" customWidth="1"/>
+    <col min="1" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,8 +538,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -544,8 +567,8 @@
         <v>0.64329800000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
@@ -571,8 +594,8 @@
         <v>1.3071999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -586,20 +609,20 @@
         <v>4</v>
       </c>
       <c r="F4" s="9">
-        <v>20.605713999999999</v>
+        <v>17.8666666666666</v>
       </c>
       <c r="G4" s="9">
-        <v>79.394285999999994</v>
+        <v>82.133333333333297</v>
       </c>
       <c r="H4" s="9">
-        <v>2.1362860000000001</v>
+        <v>2.19695803301172</v>
       </c>
       <c r="I4" s="10">
-        <v>1.7647969999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+        <v>1.4119999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
@@ -612,21 +635,21 @@
       <c r="E5" s="8">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="15">
         <v>17.545000000000002</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="15">
         <v>82.454999999999998</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="15">
         <v>2.1417989999999998</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="16">
         <v>2.2481</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -652,8 +675,8 @@
         <v>2.5295999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -679,8 +702,8 @@
         <v>0.75960000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -706,8 +729,8 @@
         <v>1.4036</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -733,8 +756,8 @@
         <v>2.0089329999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
@@ -760,8 +783,8 @@
         <v>2.3887999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
       <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
@@ -787,8 +810,8 @@
         <v>2.8273600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -814,8 +837,8 @@
         <v>0.65880000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
       <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
@@ -841,8 +864,8 @@
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -868,8 +891,8 @@
         <v>1.7467999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
       <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
@@ -895,8 +918,8 @@
         <v>2.3679000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
       <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
@@ -922,8 +945,8 @@
         <v>2.8431199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -949,8 +972,8 @@
         <v>0.73719999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
@@ -974,8 +997,8 @@
         <v>1.3686</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
@@ -999,8 +1022,8 @@
         <v>2.0207999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
@@ -1024,8 +1047,8 @@
         <v>2.4039000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="8" t="s">
         <v>11</v>
       </c>
@@ -1049,8 +1072,8 @@
         <v>2.854851</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
       <c r="B22" s="8" t="s">
         <v>12</v>
       </c>
@@ -1074,8 +1097,8 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
       <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1099,8 +1122,8 @@
         <v>1.3892</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
       <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
@@ -1124,8 +1147,8 @@
         <v>1.9164000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
       <c r="B25" s="8" t="s">
         <v>12</v>
       </c>
@@ -1149,8 +1172,8 @@
         <v>2.5038999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26" s="8" t="s">
         <v>12</v>
       </c>
@@ -1174,8 +1197,8 @@
         <v>2.8506399999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
       <c r="B27" s="8" t="s">
         <v>13</v>
       </c>
@@ -1199,8 +1222,8 @@
         <v>0.6724</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
       <c r="B28" s="8" t="s">
         <v>13</v>
       </c>
@@ -1224,8 +1247,8 @@
         <v>1.1708000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
       <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
@@ -1249,8 +1272,8 @@
         <v>1.7336</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
       <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
@@ -1274,8 +1297,8 @@
         <v>2.4346999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
       <c r="B31" s="8" t="s">
         <v>13</v>
       </c>
@@ -1299,62 +1322,384 @@
         <v>2.8554400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="12">
+        <v>5</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1</v>
+      </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="F32" s="10">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="G32" s="10">
+        <v>90.92</v>
+      </c>
+      <c r="H32" s="10">
+        <v>2.159818</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="12">
+        <v>10</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
       <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="F33" s="10">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="G33" s="10">
+        <v>84.42</v>
+      </c>
+      <c r="H33" s="10">
+        <v>2.143729</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1.3892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="12">
+        <v>15</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
       <c r="E34" s="8"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="F34" s="10">
+        <v>21.873332999999999</v>
+      </c>
+      <c r="G34" s="10">
+        <v>86.953333000000001</v>
+      </c>
+      <c r="H34" s="10">
+        <v>2.213425</v>
+      </c>
+      <c r="I34" s="10">
+        <v>2.0207999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="12">
+        <v>20</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
       <c r="E35" s="8"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="8"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="8"/>
+      <c r="F35" s="10">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="G35" s="10">
+        <v>83.204999999999998</v>
+      </c>
+      <c r="H35" s="10">
+        <v>2.2597079999999998</v>
+      </c>
+      <c r="I35" s="10">
+        <v>2.5038999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="12">
+        <v>25</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>22.628</v>
+      </c>
+      <c r="G36" s="10">
+        <v>81.311999999999998</v>
+      </c>
+      <c r="H36" s="10">
+        <v>2.2525270000000002</v>
+      </c>
+      <c r="I36" s="10">
+        <v>2.8554400000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="12">
+        <v>5</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="12">
+        <v>10</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>20</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="12">
+        <v>5</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="12">
+        <v>10</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="12">
+        <v>15</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="12">
+        <v>20</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="12">
+        <v>25</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="12">
+        <v>5</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
+      <c r="E47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="12">
+        <v>10</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="12">
+        <v>15</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
+      <c r="B50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="12">
+        <v>20</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="12">
+        <v>25</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:I11">
     <sortCondition ref="C7:C11"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="A17:A31"/>
+  <mergeCells count="3">
     <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="A37:A51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCBFA8E-881D-4D6D-8AB9-7E1113DBF919}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Java\20231120-SecureOpticalNetworkSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF8E19-1246-4D7D-A661-87F9FD71A19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FAC952-883F-4959-960B-83D7F6DE736B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="2532" windowWidth="14760" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="1305" windowWidth="17235" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,18 +133,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -168,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -177,9 +171,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,31 +182,19 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -500,16 +479,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="10.6640625" customWidth="1"/>
+    <col min="1" max="8" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -538,8 +517,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -554,102 +533,102 @@
       <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
-        <v>7.8228569999999999</v>
-      </c>
-      <c r="G2" s="11">
-        <v>92.177143000000001</v>
-      </c>
-      <c r="H2" s="11">
-        <v>2.025712</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.64329800000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
+      </c>
+      <c r="H2" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
         <v>10</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="10">
-        <v>14.85</v>
-      </c>
-      <c r="G3" s="10">
-        <v>85.15</v>
-      </c>
-      <c r="H3" s="10">
-        <v>2.168739</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1.3071999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="F3" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="G3" s="6">
+        <v>92.2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2.1636180180811699</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.1479999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
         <v>15</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>17.8666666666666</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="5">
         <v>82.133333333333297</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="5">
         <v>2.19695803301172</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="6">
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
         <v>20</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
-      <c r="F5" s="15">
-        <v>17.545000000000002</v>
-      </c>
-      <c r="G5" s="15">
-        <v>82.454999999999998</v>
-      </c>
-      <c r="H5" s="15">
-        <v>2.1417989999999998</v>
-      </c>
-      <c r="I5" s="16">
-        <v>2.2481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="F5" s="10">
+        <v>19.25</v>
+      </c>
+      <c r="G5" s="10">
+        <v>80.75</v>
+      </c>
+      <c r="H5" s="10">
+        <v>2.2473441044443301</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -662,75 +641,75 @@
       <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>19.28</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>80.72</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>2.2132679999999998</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>2.5295999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>11.22</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="6">
         <v>88.78</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="6">
         <v>2.1196429999999999</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>0.75960000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="3">
         <v>10</v>
       </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>18.95</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <v>81.05</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="6">
         <v>2.0796000000000001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>1.4036</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -743,22 +722,22 @@
       <c r="E9" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>28.493333</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>71.506666999999993</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>2.1722350000000001</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>2.0089329999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3">
@@ -770,22 +749,22 @@
       <c r="E10" s="3">
         <v>4</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>20.454999999999998</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>79.545000000000002</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>2.0836489999999999</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>2.3887999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3">
@@ -797,690 +776,714 @@
       <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>20.556000000000001</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>79.444000000000003</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>2.0812930000000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>2.8273600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="3">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="6">
         <v>10.1</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="6">
         <v>89.9</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="6">
         <v>2.174687</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="6">
         <v>0.65880000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="6">
         <v>9.26</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <v>90.74</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="6">
         <v>2.1556829999999998</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="6">
         <v>1.2370000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="3">
         <v>15</v>
       </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>4</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>16.966667000000001</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="6">
         <v>83.033332999999999</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="6">
         <v>2.1386759999999998</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="6">
         <v>1.7467999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="3">
         <v>20</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="6">
         <v>22.59</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>77.41</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="6">
         <v>2.0710839999999999</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="6">
         <v>2.3679000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="3">
         <v>25</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
         <v>4</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="6">
         <v>18.72</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="6">
         <v>81.28</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="6">
         <v>2.1577250000000001</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="6">
         <v>2.8431199999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="10">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="6">
         <v>9.08</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="6">
         <v>90.92</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="6">
         <v>2.076848</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="6">
         <v>0.73719999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
         <v>10</v>
       </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10">
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="6">
         <v>17.98</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="6">
         <v>82.02</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="6">
         <v>2.143729</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="6">
         <v>1.3686</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="8">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3">
         <v>15</v>
       </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9">
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5">
         <v>21.873332999999999</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="5">
         <v>78.126666999999998</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="5">
         <v>2.213425</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="6">
         <v>2.0207999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3">
         <v>20</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9">
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5">
         <v>20.260000000000002</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="5">
         <v>79.739999999999995</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="5">
         <v>2.1497199999999999</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="6">
         <v>2.4039000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="8">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
         <v>25</v>
       </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9">
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="5">
         <v>19.256</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="5">
         <v>80.744</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="5">
         <v>2.1834769999999999</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="6">
         <v>2.854851</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="3">
         <v>5</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9">
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5">
         <v>17.920000000000002</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="5">
         <v>82.08</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="5">
         <v>2.0353509999999999</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="6">
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="3">
         <v>10</v>
       </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5">
         <v>19.670000000000002</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="5">
         <v>80.33</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="5">
         <v>2.1009370000000001</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="6">
         <v>1.3892</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="8" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="3">
         <v>15</v>
       </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="5">
         <v>18.986667000000001</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="5">
         <v>81.013333000000003</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="5">
         <v>2.0942880000000001</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="6">
         <v>1.9164000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="8" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="3">
         <v>20</v>
       </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="10">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="6">
         <v>17.989999999999998</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="6">
         <v>82.01</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="6">
         <v>2.1464650000000001</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="6">
         <v>2.5038999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="10">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="6">
         <v>22.628</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="6">
         <v>77.372</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="6">
         <v>2.11388</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="6">
         <v>2.8506399999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="10">
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="6">
         <v>13.38</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="6">
         <v>86.62</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="6">
         <v>2.159818</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="6">
         <v>0.6724</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="8" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="3">
         <v>10</v>
       </c>
-      <c r="D28" s="8">
-        <v>1</v>
-      </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10">
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="6">
         <v>15.58</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="6">
         <v>84.42</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="6">
         <v>2.087602</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="6">
         <v>1.1708000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="8" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="3">
         <v>15</v>
       </c>
-      <c r="D29" s="8">
-        <v>1</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="10">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="6">
         <v>13.046666999999999</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="6">
         <v>86.953333000000001</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="6">
         <v>2.1417030000000001</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="6">
         <v>1.7336</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="3">
         <v>20</v>
       </c>
-      <c r="D30" s="8">
-        <v>1</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="10">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="6">
         <v>16.795000000000002</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="6">
         <v>83.204999999999998</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="6">
         <v>2.2597079999999998</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="6">
         <v>2.4346999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="8" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="3">
         <v>25</v>
       </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="10">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="6">
         <v>18.687999999999999</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="6">
         <v>81.311999999999998</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="6">
         <v>2.2525270000000002</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="6">
         <v>2.8554400000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="3">
         <v>5</v>
       </c>
-      <c r="D32" s="12">
-        <v>1</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="10">
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="6">
         <v>17.920000000000002</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="6">
         <v>90.92</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="6">
         <v>2.159818</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="6">
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="12" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="3">
         <v>10</v>
       </c>
-      <c r="D33" s="12">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10">
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="6">
         <v>19.670000000000002</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="6">
         <v>84.42</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="6">
         <v>2.143729</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="6">
         <v>1.3892</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="12" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="3">
         <v>15</v>
       </c>
-      <c r="D34" s="12">
-        <v>1</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="10">
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="6">
         <v>21.873332999999999</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="6">
         <v>86.953333000000001</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="6">
         <v>2.213425</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="6">
         <v>2.0207999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="3">
         <v>20</v>
       </c>
-      <c r="D35" s="12">
-        <v>1</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="10">
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="6">
         <v>20.260000000000002</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="6">
         <v>83.204999999999998</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="6">
         <v>2.2597079999999998</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="6">
         <v>2.5038999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="3">
         <v>25</v>
       </c>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
         <v>22.628</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="6">
         <v>81.311999999999998</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="6">
         <v>2.2525270000000002</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="6">
         <v>2.8554400000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3">
         <v>5</v>
       </c>
-      <c r="D37" s="12">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12">
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="12">
+      <c r="F37" s="6">
+        <v>19.86</v>
+      </c>
+      <c r="G37" s="6">
+        <v>80.14</v>
+      </c>
+      <c r="H37" s="6">
+        <v>2.1160019999999999</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3">
         <v>10</v>
       </c>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12">
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="12" t="s">
+      <c r="F38" s="6">
+        <v>25.34</v>
+      </c>
+      <c r="G38" s="6">
+        <v>74.66</v>
+      </c>
+      <c r="H38" s="6">
+        <v>2.1949299999999998</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1.3116000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="3">
@@ -1489,13 +1492,25 @@
       <c r="D39" s="3">
         <v>1</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12" t="s">
+      <c r="F39" s="6">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="G39" s="6">
+        <v>81.06</v>
+      </c>
+      <c r="H39" s="6">
+        <v>2.0943239999999999</v>
+      </c>
+      <c r="I39" s="6">
+        <v>1.609067</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="3">
@@ -1504,12 +1519,24 @@
       <c r="D40" s="3">
         <v>1</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="F40" s="6">
+        <v>12.925000000000001</v>
+      </c>
+      <c r="G40" s="6">
+        <v>87.075000000000003</v>
+      </c>
+      <c r="H40" s="6">
+        <v>2.3056079999999999</v>
+      </c>
+      <c r="I40" s="6">
+        <v>2.5939000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
       <c r="B41" s="3" t="s">
         <v>11</v>
       </c>
@@ -1519,158 +1546,290 @@
       <c r="D41" s="3">
         <v>1</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="12">
+      <c r="F41" s="6">
+        <v>17.256</v>
+      </c>
+      <c r="G41" s="6">
+        <v>82.744</v>
+      </c>
+      <c r="H41" s="6">
+        <v>2.146252</v>
+      </c>
+      <c r="I41" s="6">
+        <v>2.8252799999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3">
         <v>5</v>
       </c>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
-      <c r="E42" s="12">
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="12">
+      <c r="F42" s="6">
+        <v>19.68</v>
+      </c>
+      <c r="G42" s="6">
+        <v>80.319999999999993</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2.163332</v>
+      </c>
+      <c r="I42" s="6">
+        <v>0.73960000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3">
         <v>10</v>
       </c>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
-      <c r="E43" s="12">
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="12">
+      <c r="F43" s="6">
+        <v>12.15</v>
+      </c>
+      <c r="G43" s="6">
+        <v>87.85</v>
+      </c>
+      <c r="H43" s="6">
+        <v>2.2806129999999998</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1.3108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="3">
         <v>15</v>
       </c>
-      <c r="D44" s="12">
-        <v>1</v>
-      </c>
-      <c r="E44" s="12">
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="12">
+      <c r="F44" s="6">
+        <v>14.713333</v>
+      </c>
+      <c r="G44" s="6">
+        <v>85.286666999999994</v>
+      </c>
+      <c r="H44" s="6">
+        <v>2.2753939999999999</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1.8861330000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3">
         <v>20</v>
       </c>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12">
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="F45" s="6">
+        <v>17.914999999999999</v>
+      </c>
+      <c r="G45" s="6">
+        <v>82.084999999999994</v>
+      </c>
+      <c r="H45" s="6">
+        <v>2.192059</v>
+      </c>
+      <c r="I45" s="6">
+        <v>2.0655999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
       <c r="B46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="3">
         <v>25</v>
       </c>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12">
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="12">
+      <c r="F46" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="G46" s="6">
+        <v>81.3</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2.220815</v>
+      </c>
+      <c r="I46" s="6">
+        <v>2.8953600000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="3">
         <v>5</v>
       </c>
-      <c r="D47" s="12">
-        <v>1</v>
-      </c>
-      <c r="E47" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="12">
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>14.333333</v>
+      </c>
+      <c r="G47" s="6">
+        <v>85.666667000000004</v>
+      </c>
+      <c r="H47" s="6">
+        <v>2.1459820000000001</v>
+      </c>
+      <c r="I47" s="6">
+        <v>0.79013299999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="3">
         <v>10</v>
       </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="12">
+      <c r="D48" s="3">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>19.2</v>
+      </c>
+      <c r="G48" s="6">
+        <v>80.8</v>
+      </c>
+      <c r="H48" s="6">
+        <v>2.2621380000000002</v>
+      </c>
+      <c r="I48" s="6">
+        <v>1.2996000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="3">
         <v>15</v>
       </c>
-      <c r="D49" s="12">
-        <v>1</v>
-      </c>
-      <c r="E49" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="12">
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>14.826667</v>
+      </c>
+      <c r="G49" s="6">
+        <v>85.173333</v>
+      </c>
+      <c r="H49" s="6">
+        <v>2.1422699999999999</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1.706933</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="3">
         <v>20</v>
       </c>
-      <c r="D50" s="12">
-        <v>1</v>
-      </c>
-      <c r="E50" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>18.015000000000001</v>
+      </c>
+      <c r="G50" s="6">
+        <v>81.984999999999999</v>
+      </c>
+      <c r="H50" s="6">
+        <v>2.1475650000000002</v>
+      </c>
+      <c r="I50" s="6">
+        <v>2.3098999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
       <c r="B51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="3">
         <v>25</v>
       </c>
-      <c r="D51" s="12">
-        <v>1</v>
-      </c>
-      <c r="E51" s="12">
-        <v>1</v>
+      <c r="D51" s="3">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>20.768000000000001</v>
+      </c>
+      <c r="G51" s="6">
+        <v>79.231999999999999</v>
+      </c>
+      <c r="H51" s="6">
+        <v>2.202016</v>
+      </c>
+      <c r="I51" s="6">
+        <v>2.7977599999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1855,7 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Java\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5E8604-57BC-4CDE-B0D0-207EB7825D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0708CD-FDB5-4339-B162-7C71985285BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="2652" windowWidth="17232" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36" yWindow="2808" windowWidth="17232" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>负载</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,13 +88,18 @@
     <t>average</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>攻击命中概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -163,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +220,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,18 +506,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -530,138 +540,133 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7">
-        <v>0</v>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="4">
+        <v>17.920000000000002</v>
       </c>
       <c r="G2" s="4">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="I2">
-        <f>G2/G17</f>
-        <v>0.3461538461538462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="H2" s="19">
+        <f>G2/C2*100</f>
+        <v>22.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I6" si="0">G3/G18</f>
-        <v>0.69744835965978125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1.6459999999999999</v>
+      </c>
+      <c r="H3" s="19">
+        <f>G3/C3*100</f>
+        <v>16.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18"/>
+      <c r="B4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4</v>
-      </c>
-      <c r="F4" s="5">
-        <v>17.8666666666666</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1.4119999999999999</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0.61966062024575952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12">
+        <v>21.873332999999999</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2.27866666666666</v>
+      </c>
+      <c r="H4" s="19">
+        <f>G4/C4*100</f>
+        <v>15.191111111111066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
         <v>20</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9">
-        <v>19.25</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1.79</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0.60493409935789122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="H5" s="19">
+        <f>G5/C5*100</f>
+        <v>14.795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11">
         <v>25</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>19.28</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2.5295999999999998</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>0.77518999754841866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="12">
+        <v>22.628</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3.2631999999999999</v>
+      </c>
+      <c r="H6" s="19">
+        <f>G6/C6*100</f>
+        <v>13.052800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
@@ -670,23 +675,23 @@
         <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="6">
-        <v>11.22</v>
+        <v>26.2</v>
       </c>
       <c r="G7" s="6">
-        <v>0.75960000000000005</v>
-      </c>
-      <c r="I7">
-        <f>1-AVERAGE(I2:I6)</f>
-        <v>0.39132261540686064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.012</v>
+      </c>
+      <c r="H7" s="19">
+        <f>G7/C7*100</f>
+        <v>20.239999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>10</v>
@@ -695,19 +700,23 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="6">
-        <v>18.95</v>
+        <v>28.6</v>
       </c>
       <c r="G8" s="6">
-        <v>1.4036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.5699999999999901</v>
+      </c>
+      <c r="H8" s="19">
+        <f>G8/C8*100</f>
+        <v>15.6999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>15</v>
@@ -716,19 +725,23 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>18.95</v>
+        <v>29.533333333333299</v>
       </c>
       <c r="G9" s="6">
-        <v>2.0089329999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.1973333333333298</v>
+      </c>
+      <c r="H9" s="19">
+        <f>G9/C9*100</f>
+        <v>14.648888888888864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>20</v>
@@ -737,19 +750,23 @@
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="5">
-        <v>20.454999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45.65</v>
       </c>
       <c r="G10" s="6">
-        <v>2.3887999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.8779999999999899</v>
+      </c>
+      <c r="H10" s="19">
+        <f>G10/C10*100</f>
+        <v>14.389999999999951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>25</v>
@@ -758,126 +775,148 @@
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="5">
-        <v>20.556000000000001</v>
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>53.64</v>
       </c>
       <c r="G11" s="6">
-        <v>2.8273600000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.2551999999999999</v>
+      </c>
+      <c r="H11" s="19">
+        <f>G11/C11*100</f>
+        <v>13.020799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="8">
         <v>5</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6">
-        <v>10.1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.65880000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>16.713332999999999</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H12" s="19">
+        <f>G12/C12*100</f>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6">
-        <v>9.26</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1.2370000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>19.8</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1.4</v>
+      </c>
+      <c r="H13" s="19">
+        <f>G13/C13*100</f>
+        <v>13.999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="11">
         <v>15</v>
       </c>
-      <c r="D14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="6">
-        <v>16.966667000000001</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1.7467999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>22.066666666666599</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1.805067</v>
+      </c>
+      <c r="H14" s="19">
+        <f>G14/C14*100</f>
+        <v>12.03378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11">
         <v>20</v>
       </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-      <c r="F15" s="6">
-        <v>22.59</v>
-      </c>
-      <c r="G15" s="6">
-        <v>2.3679000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12">
+        <v>30.95</v>
+      </c>
+      <c r="G15" s="12">
+        <v>2.2607330000000001</v>
+      </c>
+      <c r="H15" s="19">
+        <f>G15/C15*100</f>
+        <v>11.303665000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="13">
         <v>25</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4</v>
-      </c>
-      <c r="F16" s="6">
-        <v>18.72</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2.8431199999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13">
         <v>2</v>
       </c>
+      <c r="F16" s="14">
+        <v>46.36</v>
+      </c>
+      <c r="G16" s="14">
+        <v>2.8953600000000002</v>
+      </c>
+      <c r="H16" s="19">
+        <f>G16/C16*100</f>
+        <v>11.581440000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" s="8">
         <v>5</v>
@@ -885,18 +924,24 @@
       <c r="D17" s="8">
         <v>1</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
       <c r="F17" s="4">
-        <v>17.920000000000002</v>
+        <v>9.4</v>
       </c>
       <c r="G17" s="4">
-        <v>1.1439999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="H17" s="19">
+        <f>G17/C17*100</f>
+        <v>16.240000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" s="11">
         <v>10</v>
@@ -904,18 +949,24 @@
       <c r="D18" s="11">
         <v>1</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="11">
+        <v>3</v>
+      </c>
       <c r="F18" s="12">
-        <v>19.670000000000002</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G18" s="12">
-        <v>1.6459999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+        <v>1.3116000000000001</v>
+      </c>
+      <c r="H18" s="19">
+        <f>G18/C18*100</f>
+        <v>13.116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
       <c r="B19" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" s="11">
         <v>15</v>
@@ -923,18 +974,24 @@
       <c r="D19" s="11">
         <v>1</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="11">
+        <v>3</v>
+      </c>
       <c r="F19" s="12">
-        <v>21.873332999999999</v>
+        <v>19.533333333333299</v>
       </c>
       <c r="G19" s="12">
-        <v>2.27866666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+        <v>1.609067</v>
+      </c>
+      <c r="H19" s="19">
+        <f>G19/C19*100</f>
+        <v>10.727113333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
       <c r="B20" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20" s="11">
         <v>20</v>
@@ -942,249 +999,299 @@
       <c r="D20" s="11">
         <v>1</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="11">
+        <v>3</v>
+      </c>
       <c r="F20" s="12">
-        <v>20.260000000000002</v>
+        <v>23.05</v>
       </c>
       <c r="G20" s="12">
-        <v>2.9590000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11">
+        <v>2.004</v>
+      </c>
+      <c r="H20" s="19">
+        <f>G20/C20*100</f>
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="13">
         <v>25</v>
       </c>
-      <c r="D21" s="11">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="12">
-        <v>22.628</v>
-      </c>
-      <c r="G21" s="12">
-        <v>3.2631999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>3</v>
+      </c>
+      <c r="F21" s="14">
+        <v>25.56</v>
+      </c>
+      <c r="G21" s="14">
+        <v>2.8252799999999998</v>
+      </c>
+      <c r="H21" s="19">
+        <f>G21/C21*100</f>
+        <v>11.301119999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2">
         <v>5</v>
       </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
-        <v>3</v>
-      </c>
-      <c r="F22" s="4">
-        <v>9.4</v>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>0.81200000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="H22" s="19">
+        <f>G22/C22*100</f>
+        <v>7.9200000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3">
         <v>10</v>
       </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="11">
-        <v>3</v>
-      </c>
-      <c r="F23" s="12">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G23" s="12">
-        <v>1.3116000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="H23" s="19">
+        <f>G23/C23*100</f>
+        <v>11.479999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
         <v>15</v>
       </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11">
-        <v>3</v>
-      </c>
-      <c r="F24" s="12">
-        <v>19.533333333333299</v>
-      </c>
-      <c r="G24" s="12">
-        <v>1.609067</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4</v>
+      </c>
+      <c r="F24" s="5">
+        <v>17.8666666666666</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="H24" s="19">
+        <f>G24/C24*100</f>
+        <v>9.413333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="B25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
         <v>20</v>
       </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
-        <v>3</v>
-      </c>
-      <c r="F25" s="12">
-        <v>23.05</v>
-      </c>
-      <c r="G25" s="12">
-        <v>2.004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="9">
+        <v>19.25</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1.79</v>
+      </c>
+      <c r="H25" s="19">
+        <f>G25/C25*100</f>
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
-      <c r="B26" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="13">
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
         <v>25</v>
       </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13">
-        <v>3</v>
-      </c>
-      <c r="F26" s="14">
-        <v>25.56</v>
-      </c>
-      <c r="G26" s="14">
-        <v>2.8252799999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="F26" s="5">
+        <v>19.28</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2.5295999999999998</v>
+      </c>
+      <c r="H26" s="19">
+        <f>G26/C26*100</f>
+        <v>10.118399999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
-      <c r="B27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3">
         <v>5</v>
       </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4">
-        <v>16.713332999999999</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6">
+        <v>11.22</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.75960000000000005</v>
+      </c>
+      <c r="H27" s="19">
+        <f>G27/C27*100</f>
+        <v>15.192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
-      <c r="B28" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="11">
+      <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="11">
-        <v>1</v>
-      </c>
-      <c r="E28" s="11">
-        <v>2</v>
-      </c>
-      <c r="F28" s="12">
-        <v>19.8</v>
-      </c>
-      <c r="G28" s="12">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4</v>
+      </c>
+      <c r="F28" s="6">
+        <v>18.95</v>
+      </c>
+      <c r="G28" s="6">
+        <v>1.4036</v>
+      </c>
+      <c r="H28" s="19">
+        <f>G28/C28*100</f>
+        <v>14.035999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
-      <c r="B29" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3">
         <v>15</v>
       </c>
-      <c r="D29" s="11">
-        <v>1</v>
-      </c>
-      <c r="E29" s="11">
-        <v>2</v>
-      </c>
-      <c r="F29" s="12">
-        <v>22.066666666666599</v>
-      </c>
-      <c r="G29" s="12">
-        <v>1.805067</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="6">
+        <v>18.95</v>
+      </c>
+      <c r="G29" s="6">
+        <v>2.0089329999999999</v>
+      </c>
+      <c r="H29" s="19">
+        <f>G29/C29*100</f>
+        <v>13.392886666666664</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
-      <c r="B30" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="11">
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3">
         <v>20</v>
       </c>
-      <c r="D30" s="11">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11">
-        <v>2</v>
-      </c>
-      <c r="F30" s="12">
-        <v>30.95</v>
-      </c>
-      <c r="G30" s="12">
-        <v>2.2607330000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5">
+        <v>20.454999999999998</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2.3887999999999998</v>
+      </c>
+      <c r="H30" s="19">
+        <f>G30/C30*100</f>
+        <v>11.943999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
-      <c r="B31" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3">
         <v>25</v>
       </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13">
-        <v>2</v>
-      </c>
-      <c r="F31" s="14">
-        <v>46.36</v>
-      </c>
-      <c r="G31" s="14">
-        <v>2.8953600000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="5">
+        <v>20.556000000000001</v>
+      </c>
+      <c r="G31" s="6">
+        <v>2.8273600000000001</v>
+      </c>
+      <c r="H31" s="19">
+        <f>G31/C31*100</f>
+        <v>11.30944</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="11" t="s">
-        <v>9</v>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C32" s="3">
         <v>5</v>
@@ -1193,19 +1300,23 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="6">
-        <v>26.2</v>
+        <v>10.1</v>
       </c>
       <c r="G32" s="6">
-        <v>1.012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="H32" s="19">
+        <f>G32/C32*100</f>
+        <v>13.176000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C33" s="3">
         <v>10</v>
@@ -1214,19 +1325,23 @@
         <v>1</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" s="6">
-        <v>28.6</v>
+        <v>9.26</v>
       </c>
       <c r="G33" s="6">
-        <v>1.5699999999999901</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="H33" s="19">
+        <f>G33/C33*100</f>
+        <v>12.370000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C34" s="3">
         <v>15</v>
@@ -1235,19 +1350,23 @@
         <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" s="6">
-        <v>29.533333333333299</v>
+        <v>16.966667000000001</v>
       </c>
       <c r="G34" s="6">
-        <v>2.1973333333333298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.7467999999999999</v>
+      </c>
+      <c r="H34" s="19">
+        <f>G34/C34*100</f>
+        <v>11.645333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C35" s="3">
         <v>20</v>
@@ -1256,19 +1375,23 @@
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F35" s="6">
-        <v>45.65</v>
+        <v>22.59</v>
       </c>
       <c r="G35" s="6">
-        <v>2.8779999999999899</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.3679000000000001</v>
+      </c>
+      <c r="H35" s="19">
+        <f>G35/C35*100</f>
+        <v>11.839499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C36" s="3">
         <v>25</v>
@@ -1277,23 +1400,26 @@
         <v>1</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" s="6">
-        <v>53.64</v>
+        <v>18.72</v>
       </c>
       <c r="G36" s="6">
-        <v>3.2551999999999999</v>
+        <v>2.8431199999999999</v>
+      </c>
+      <c r="H36" s="19">
+        <f>G36/C36*100</f>
+        <v>11.372479999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C7:G11">
-    <sortCondition ref="C7:C11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C27:G31">
+    <sortCondition ref="C27:C31"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A36"/>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Java\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98949B34-4538-42E2-A02B-B18954CED9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD54BE7-218F-4D25-8957-BD5A35538BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2610" windowWidth="19335" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12360" yWindow="1164" windowWidth="17232" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,15 +491,15 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="10.625" customWidth="1"/>
+    <col min="1" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -540,7 +540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
@@ -581,7 +581,7 @@
         <v>21.552382000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="6">
         <v>50000</v>
@@ -620,7 +620,7 @@
         <v>20.353908000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="6">
         <v>50000</v>
@@ -659,7 +659,7 @@
         <v>18.329294999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="6">
         <v>50000</v>
@@ -698,7 +698,7 @@
         <v>16.109870999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="6">
         <v>50000</v>
@@ -737,7 +737,7 @@
         <v>13.779595</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="6">
         <v>50000</v>
@@ -776,7 +776,7 @@
         <v>9.9934440000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="6">
         <v>50000</v>
@@ -815,7 +815,7 @@
         <v>5.7622980000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="6">
         <v>50000</v>
@@ -854,7 +854,7 @@
         <v>2.2862909999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8">
         <v>50000</v>
@@ -893,7 +893,7 @@
         <v>2.2348979999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="6">
         <v>50000</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="6">
         <v>50000</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="6">
         <v>50000</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="6">
         <v>50000</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="6">
         <v>50000</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="6">
         <v>50000</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="6">
         <v>50000</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="8">
         <v>50000</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="6">
         <v>50000</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="6">
         <v>50000</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="6">
         <v>50000</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="6">
         <v>50000</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="6">
         <v>50000</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="6">
         <v>50000</v>
@@ -1521,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="6">
         <v>50000</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="8">
         <v>50000</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
@@ -1614,14 +1614,11 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="2">
-        <f>MAX(G2:I28)</f>
-        <v>3.2904499999999999</v>
-      </c>
+      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1632,7 +1629,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Java\20231120-SecureOpticalNetworkSimulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD54BE7-218F-4D25-8957-BD5A35538BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D790CDE-5FA9-4BF8-8A16-C8DA124F923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="1164" windowWidth="17232" windowHeight="14076" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="1950" windowWidth="19050" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>业务数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,14 +99,20 @@
     <t>风险度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NSFnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttMpls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="177" formatCode="0.000%"/>
+  <numFmts count="1">
     <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -176,15 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,6 +206,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,18 +491,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="13" width="10.6640625" customWidth="1"/>
+    <col min="1" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -540,1115 +544,2152 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C2" s="2">
         <v>900</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>43.078000000000003</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>56.068252999999999</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>30.123033</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>2.5284779999999998</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>2.5468639999999998</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>2.51695</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>91.482934999999998</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>36.467982999999997</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>0.91174299999999997</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>21.552382000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="N2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C3" s="4">
         <v>800</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>39.658000000000001</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>53.093009000000002</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>26.109660999999999</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>2.5650620000000002</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>2.6028790000000002</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>2.5408529999999998</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>90.068563999999995</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="5">
         <v>35.65925</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="5">
         <v>0.91954000000000002</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="5">
         <v>20.353908000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C4" s="4">
         <v>700</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>34.066000000000003</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>47.229371</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>21.040904000000001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>2.6034820000000001</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>2.6884100000000002</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>2.5473189999999999</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>88.263727000000003</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="5">
         <v>34.810192999999998</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="5">
         <v>0.93298000000000003</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="5">
         <v>18.329294999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C5" s="4">
         <v>600</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>28.844000000000001</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>41.308785</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>16.394164</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>2.6527910000000001</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>2.7806190000000002</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>2.5631629999999999</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>86.111672999999996</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>34.719892000000002</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>0.95979999999999999</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="5">
         <v>16.109870999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C6" s="4">
         <v>500</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>22.248000000000001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>33.730286</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>10.897232000000001</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>2.6841499999999998</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="5">
         <v>2.8720859999999999</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>2.5459740000000002</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>83.206886999999995</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>33.147815999999999</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>0.96099400000000001</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>13.779595</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C7" s="4">
         <v>400</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>13.608000000000001</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>22.156165999999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>5.016642</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>2.6968589999999999</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>2.9820350000000002</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>2.4619610000000001</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>77.965692000000004</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <v>31.995429999999999</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="5">
         <v>0.96317299999999995</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="5">
         <v>9.9934440000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C8" s="4">
         <v>300</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>5.0460000000000003</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>8.9702059999999992</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>1.1202240000000001</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>2.6893760000000002</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>3.084022</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>2.3259150000000002</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>69.224586000000002</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <v>29.674786999999998</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>0.936056</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>5.7622980000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C9" s="4">
         <v>200</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>0.11</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>0.208125</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>1.1993E-2</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>2.6372610000000001</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>3.1220469999999998</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>2.1540059999999999</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>49.328245000000003</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>27.484290999999999</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>0.87241800000000003</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <v>2.2862909999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="8">
-        <v>50000</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C10" s="6">
         <v>100</v>
       </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <v>2.6320600000000001</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>3.121486</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>2.14236</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>24.782710000000002</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>27.055325</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="7">
         <v>0.86323799999999995</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="7">
         <v>2.2348979999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C11" s="2">
         <v>900</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>49.33</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>93.083527000000004</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>5.8347290000000003</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>2.427492</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>2.9121229999999998</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>2.3921049999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>69.366653999999997</v>
       </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C12" s="4">
         <v>800</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>47.006</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>91.522581000000002</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>2.3360180000000001</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>2.3697020000000002</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>2.8888370000000001</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>2.3244850000000001</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>63.957213000000003</v>
       </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C13" s="4">
         <v>700</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>44.195999999999998</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>87.616990999999999</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>0.76806099999999999</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>2.333596</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>2.8646639999999999</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <v>2.2673139999999998</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>58.073248</v>
       </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C14" s="4">
         <v>600</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>43.793999999999997</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>87.630145999999996</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>5.5937000000000001E-2</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <v>2.2745790000000001</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>2.874555</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <v>2.200488</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>50.939914999999999</v>
       </c>
-      <c r="K14" s="7">
-        <v>0</v>
-      </c>
-      <c r="L14" s="7">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C15" s="6">
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C15" s="4">
         <v>500</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>43.113999999999997</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>85.901011999999994</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>4.0150000000000003E-3</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <v>2.2401119999999999</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>2.8605139999999998</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <v>2.1519780000000002</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>43.793739000000002</v>
       </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C16" s="6">
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C16" s="4">
         <v>400</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>42.606000000000002</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>84.906336999999994</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
         <v>2.24797</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>2.8737789999999999</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>2.1528299999999998</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>35.541696999999999</v>
       </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C17" s="4">
         <v>300</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>42.067999999999998</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>84.729104000000007</v>
       </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
         <v>2.242629</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>2.8554469999999998</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>2.1503480000000001</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="5">
         <v>26.917694999999998</v>
       </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C18" s="6">
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C18" s="4">
         <v>200</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>42.095999999999997</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>84.394547000000003</v>
       </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
         <v>2.2409680000000001</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="5">
         <v>2.8459660000000002</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="5">
         <v>2.1470069999999999</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="5">
         <v>17.979948</v>
       </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8">
-        <v>50000</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C19" s="6">
         <v>100</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>42.112000000000002</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <v>84.399551000000002</v>
       </c>
-      <c r="F19" s="9">
-        <v>0</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
         <v>2.2416909999999999</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <v>2.8498199999999998</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>2.147214</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="7">
         <v>9.1596039999999999</v>
       </c>
-      <c r="K19" s="9">
-        <v>0</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="K19" s="7">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C20" s="2">
         <v>900</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>74.951999999999998</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>75.035062999999994</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>74.869235000000003</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>3.2208960000000002</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
         <v>3.2256019999999999</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="3">
         <v>3.2162380000000002</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="3">
         <v>84.660184999999998</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="3">
         <v>44.779429999999998</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="3">
         <v>1.254815</v>
       </c>
-      <c r="M20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C21" s="4">
         <v>800</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>72.421999999999997</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>72.449101999999996</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>72.394896000000003</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>3.2460659999999999</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>3.242305</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <v>3.249819</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="5">
         <v>83.714321999999996</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="5">
         <v>43.510433999999997</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>1.2524679999999999</v>
       </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="M21" s="5">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C22" s="4">
         <v>700</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>68.828000000000003</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>68.984600999999998</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>68.672199000000006</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="5">
         <v>3.2547799999999998</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="5">
         <v>3.252586</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="5">
         <v>3.2569409999999999</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="5">
         <v>82.405501000000001</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="5">
         <v>43.269331000000001</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="5">
         <v>1.2355830000000001</v>
       </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C23" s="4">
         <v>600</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>64.936000000000007</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>64.968051000000003</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="5">
         <v>64.903846000000001</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="5">
         <v>3.2677390000000002</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="5">
         <v>3.2704629999999999</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="5">
         <v>3.2650109999999999</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="5">
         <v>80.917516000000006</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="5">
         <v>41.212381000000001</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="5">
         <v>1.212836</v>
       </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C24" s="6">
+      <c r="M23" s="5">
+        <v>0</v>
+      </c>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C24" s="4">
         <v>500</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>59.32</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>59.053531</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>59.582407000000003</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>3.285005</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="5">
         <v>3.281847</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="5">
         <v>3.2881559999999999</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>79.789085</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="5">
         <v>40.436110999999997</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="5">
         <v>1.195757</v>
       </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C25" s="6">
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C25" s="4">
         <v>400</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>50.124000000000002</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>50.841481000000002</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="5">
         <v>49.409039999999997</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="5">
         <v>3.2860689999999999</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="5">
         <v>3.2815449999999999</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="5">
         <v>3.2904499999999999</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="5">
         <v>76.829389000000006</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="5">
         <v>38.693809999999999</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="5">
         <v>1.164493</v>
       </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C26" s="6">
+      <c r="M25" s="5">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C26" s="4">
         <v>300</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>36.844000000000001</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>36.680204000000003</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="5">
         <v>37.006087999999998</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="5">
         <v>3.2810980000000001</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="5">
         <v>3.2770049999999999</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <v>3.2851680000000001</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="5">
         <v>73.613598999999994</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="5">
         <v>37.253576000000002</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="5">
         <v>1.1429800000000001</v>
       </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C27" s="6">
+      <c r="M26" s="5">
+        <v>0</v>
+      </c>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C27" s="4">
         <v>200</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>15.194000000000001</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>15.112308000000001</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>15.274957000000001</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>3.2168239999999999</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>3.215611</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <v>3.218029</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="5">
         <v>65.180322000000004</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="5">
         <v>34.853760999999999</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="5">
         <v>1.099782</v>
       </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="8">
-        <v>50000</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="M27" s="5">
+        <v>0</v>
+      </c>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C28" s="6">
         <v>100</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>1.1519999999999999</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <v>1.1541699999999999</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="7">
         <v>1.1498379999999999</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="7">
         <v>3.0993949999999999</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="7">
         <v>3.1005069999999999</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="7">
         <v>3.098287</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="7">
         <v>36.852330000000002</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="7">
         <v>34.586931999999997</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="7">
         <v>1.084371</v>
       </c>
-      <c r="M28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>900</v>
+      </c>
+      <c r="D29" s="5">
+        <v>14.353999999999999</v>
+      </c>
+      <c r="E29" s="5">
+        <v>22.261216000000001</v>
+      </c>
+      <c r="F29" s="5">
+        <v>6.3991980000000002</v>
+      </c>
+      <c r="G29" s="5">
+        <v>2.8161269999999998</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2.9950239999999999</v>
+      </c>
+      <c r="I29" s="5">
+        <v>2.666652</v>
+      </c>
+      <c r="J29" s="5">
+        <v>68.417297000000005</v>
+      </c>
+      <c r="K29" s="5">
+        <v>28.752683999999999</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.87285199999999996</v>
+      </c>
+      <c r="M29" s="5">
+        <v>4.9013730000000004</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>800</v>
+      </c>
+      <c r="D30" s="5">
+        <v>11.512</v>
+      </c>
+      <c r="E30" s="5">
+        <v>18.579584000000001</v>
+      </c>
+      <c r="F30" s="5">
+        <v>4.4166569999999998</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2.8285870000000002</v>
+      </c>
+      <c r="H30" s="5">
+        <v>3.0238779999999998</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2.6615790000000001</v>
+      </c>
+      <c r="J30" s="5">
+        <v>64.903525999999999</v>
+      </c>
+      <c r="K30" s="5">
+        <v>28.143954999999998</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.85768599999999995</v>
+      </c>
+      <c r="M30" s="5">
+        <v>4.4108470000000004</v>
+      </c>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C31" s="4">
+        <v>700</v>
+      </c>
+      <c r="D31" s="5">
+        <v>7.968</v>
+      </c>
+      <c r="E31" s="5">
+        <v>13.34268</v>
+      </c>
+      <c r="F31" s="5">
+        <v>2.6083479999999999</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2.8392729999999999</v>
+      </c>
+      <c r="H31" s="5">
+        <v>3.0701670000000001</v>
+      </c>
+      <c r="I31" s="5">
+        <v>2.6344020000000001</v>
+      </c>
+      <c r="J31" s="5">
+        <v>59.412269999999999</v>
+      </c>
+      <c r="K31" s="5">
+        <v>27.856455</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.85333300000000001</v>
+      </c>
+      <c r="M31" s="5">
+        <v>3.6604809999999999</v>
+      </c>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>600</v>
+      </c>
+      <c r="D32" s="5">
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="E32" s="5">
+        <v>9.8318290000000008</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1.444842</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2.8419690000000002</v>
+      </c>
+      <c r="H32" s="5">
+        <v>3.0921959999999999</v>
+      </c>
+      <c r="I32" s="5">
+        <v>2.610217</v>
+      </c>
+      <c r="J32" s="5">
+        <v>54.059823000000002</v>
+      </c>
+      <c r="K32" s="5">
+        <v>27.049257000000001</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.83820499999999998</v>
+      </c>
+      <c r="M32" s="5">
+        <v>2.8338570000000001</v>
+      </c>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C33" s="4">
+        <v>500</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3.3759999999999999</v>
+      </c>
+      <c r="E33" s="5">
+        <v>6.200088</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.57015300000000002</v>
+      </c>
+      <c r="G33" s="5">
+        <v>2.8421720000000001</v>
+      </c>
+      <c r="H33" s="5">
+        <v>3.1174379999999999</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2.5841690000000002</v>
+      </c>
+      <c r="J33" s="5">
+        <v>46.341493999999997</v>
+      </c>
+      <c r="K33" s="5">
+        <v>25.995743999999998</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.80989599999999995</v>
+      </c>
+      <c r="M33" s="5">
+        <v>2.0572629999999998</v>
+      </c>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C34" s="4">
+        <v>400</v>
+      </c>
+      <c r="D34" s="5">
+        <v>2.11</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4.0565429999999996</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.16781199999999999</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2.8510779999999998</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3.1449980000000002</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2.5692390000000001</v>
+      </c>
+      <c r="J34" s="5">
+        <v>38.809716000000002</v>
+      </c>
+      <c r="K34" s="5">
+        <v>25.529322000000001</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.79874000000000001</v>
+      </c>
+      <c r="M34" s="5">
+        <v>1.647578</v>
+      </c>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>300</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.722</v>
+      </c>
+      <c r="E35" s="5">
+        <v>3.4127109999999998</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1.6071999999999999E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.8503120000000002</v>
+      </c>
+      <c r="H35" s="5">
+        <v>3.1467529999999999</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2.5613649999999999</v>
+      </c>
+      <c r="J35" s="5">
+        <v>29.245232000000001</v>
+      </c>
+      <c r="K35" s="5">
+        <v>25.029026999999999</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.78291100000000002</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1.3500939999999999</v>
+      </c>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>200</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3.3489960000000001</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2.8457150000000002</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3.1377570000000001</v>
+      </c>
+      <c r="I36" s="5">
+        <v>2.5609130000000002</v>
+      </c>
+      <c r="J36" s="5">
+        <v>19.410855999999999</v>
+      </c>
+      <c r="K36" s="5">
+        <v>25.100550999999999</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.78093199999999996</v>
+      </c>
+      <c r="M36" s="5">
+        <v>1.2340960000000001</v>
+      </c>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C37" s="6">
+        <v>100</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.952</v>
+      </c>
+      <c r="E37" s="5">
+        <v>3.906657</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2.8475440000000001</v>
+      </c>
+      <c r="H37" s="5">
+        <v>3.1453739999999999</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2.5617380000000001</v>
+      </c>
+      <c r="J37" s="5">
+        <v>9.7726349999999993</v>
+      </c>
+      <c r="K37" s="5">
+        <v>25.035098999999999</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.782605</v>
+      </c>
+      <c r="M37" s="5">
+        <v>1.0724450000000001</v>
+      </c>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C38" s="2">
+        <v>900</v>
+      </c>
+      <c r="D38" s="5">
+        <v>42.73</v>
+      </c>
+      <c r="E38" s="5">
+        <v>85.438372000000001</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.17169799999999999</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2.5956169999999998</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2.8991470000000001</v>
+      </c>
+      <c r="I38" s="5">
+        <v>2.551498</v>
+      </c>
+      <c r="J38" s="5">
+        <v>33.915081999999998</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>800</v>
+      </c>
+      <c r="D39" s="5">
+        <v>42.58</v>
+      </c>
+      <c r="E39" s="5">
+        <v>85.158062999999999</v>
+      </c>
+      <c r="F39" s="5">
+        <v>3.5985999999999997E-2</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2.6148899999999999</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2.942437</v>
+      </c>
+      <c r="I39" s="5">
+        <v>2.5662970000000001</v>
+      </c>
+      <c r="J39" s="5">
+        <v>30.871237000000001</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>700</v>
+      </c>
+      <c r="D40" s="5">
+        <v>42.594000000000001</v>
+      </c>
+      <c r="E40" s="5">
+        <v>84.674115999999998</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1.6095000000000002E-2</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2.611278</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2.9651010000000002</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2.5564010000000001</v>
+      </c>
+      <c r="J40" s="5">
+        <v>26.724537999999999</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>600</v>
+      </c>
+      <c r="D41" s="5">
+        <v>42.64</v>
+      </c>
+      <c r="E41" s="5">
+        <v>84.811839000000006</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2.6063459999999998</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2.9243060000000001</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2.5575169999999998</v>
+      </c>
+      <c r="J41" s="5">
+        <v>22.941410999999999</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C42" s="4">
+        <v>500</v>
+      </c>
+      <c r="D42" s="5">
+        <v>42.781999999999996</v>
+      </c>
+      <c r="E42" s="5">
+        <v>85.386396000000005</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2.6081300000000001</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2.9344440000000001</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2.5602450000000001</v>
+      </c>
+      <c r="J42" s="5">
+        <v>18.733664000000001</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C43" s="4">
+        <v>400</v>
+      </c>
+      <c r="D43" s="5">
+        <v>42.56</v>
+      </c>
+      <c r="E43" s="5">
+        <v>84.892488</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2.6040220000000001</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2.9325320000000001</v>
+      </c>
+      <c r="I43" s="5">
+        <v>2.554125</v>
+      </c>
+      <c r="J43" s="5">
+        <v>15.445611</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C44" s="4">
+        <v>300</v>
+      </c>
+      <c r="D44" s="5">
+        <v>42.597999999999999</v>
+      </c>
+      <c r="E44" s="5">
+        <v>84.870098999999996</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2.6160589999999999</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2.9595729999999998</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2.563685</v>
+      </c>
+      <c r="J44" s="5">
+        <v>11.60177</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C45" s="4">
+        <v>200</v>
+      </c>
+      <c r="D45" s="5">
+        <v>42.262</v>
+      </c>
+      <c r="E45" s="5">
+        <v>84.673024999999996</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2.6035710000000001</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2.9397389999999999</v>
+      </c>
+      <c r="I45" s="5">
+        <v>2.5522279999999999</v>
+      </c>
+      <c r="J45" s="5">
+        <v>7.6788210000000001</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C46" s="6">
+        <v>100</v>
+      </c>
+      <c r="D46" s="5">
+        <v>42.576000000000001</v>
+      </c>
+      <c r="E46" s="5">
+        <v>84.931179</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2.601909</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2.945459</v>
+      </c>
+      <c r="I46" s="5">
+        <v>2.5498699999999999</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3.847585</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C47" s="2">
+        <v>900</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C48" s="4">
+        <v>800</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C49" s="4">
+        <v>700</v>
+      </c>
+      <c r="D49" s="5">
+        <v>43.223999999999997</v>
+      </c>
+      <c r="E49" s="5">
+        <v>43.285136000000001</v>
+      </c>
+      <c r="F49" s="5">
+        <v>43.163024999999998</v>
+      </c>
+      <c r="G49" s="5">
+        <v>3.2280540000000002</v>
+      </c>
+      <c r="H49" s="5">
+        <v>3.2203740000000001</v>
+      </c>
+      <c r="I49" s="5">
+        <v>3.235697</v>
+      </c>
+      <c r="J49" s="5">
+        <v>57.084159999999997</v>
+      </c>
+      <c r="K49" s="5">
+        <v>32.455140999999998</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.998552</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C50" s="4">
+        <v>600</v>
+      </c>
+      <c r="D50" s="5">
+        <v>37.954000000000001</v>
+      </c>
+      <c r="E50" s="5">
+        <v>38.059941000000002</v>
+      </c>
+      <c r="F50" s="5">
+        <v>37.848415000000003</v>
+      </c>
+      <c r="G50" s="5">
+        <v>3.2384520000000001</v>
+      </c>
+      <c r="H50" s="5">
+        <v>3.2413479999999999</v>
+      </c>
+      <c r="I50" s="5">
+        <v>3.235576</v>
+      </c>
+      <c r="J50" s="5">
+        <v>53.755561999999998</v>
+      </c>
+      <c r="K50" s="5">
+        <v>33.013896000000003</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1.015622</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C51" s="4">
+        <v>500</v>
+      </c>
+      <c r="D51" s="5">
+        <v>31.85</v>
+      </c>
+      <c r="E51" s="5">
+        <v>31.817819</v>
+      </c>
+      <c r="F51" s="5">
+        <v>31.882314999999998</v>
+      </c>
+      <c r="G51" s="5">
+        <v>3.258518</v>
+      </c>
+      <c r="H51" s="5">
+        <v>3.2581519999999999</v>
+      </c>
+      <c r="I51" s="5">
+        <v>3.2588849999999998</v>
+      </c>
+      <c r="J51" s="5">
+        <v>49.598843000000002</v>
+      </c>
+      <c r="K51" s="5">
+        <v>32.068112999999997</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.99587300000000001</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="9"/>
+      <c r="B52" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C52" s="4">
+        <v>400</v>
+      </c>
+      <c r="D52" s="5">
+        <v>25.617999999999999</v>
+      </c>
+      <c r="E52" s="5">
+        <v>25.859300000000001</v>
+      </c>
+      <c r="F52" s="5">
+        <v>25.378546</v>
+      </c>
+      <c r="G52" s="5">
+        <v>3.2317629999999999</v>
+      </c>
+      <c r="H52" s="5">
+        <v>3.233806</v>
+      </c>
+      <c r="I52" s="5">
+        <v>3.2297479999999998</v>
+      </c>
+      <c r="J52" s="5">
+        <v>43.070247999999999</v>
+      </c>
+      <c r="K52" s="5">
+        <v>31.834434999999999</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.97465299999999999</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C53" s="4">
+        <v>300</v>
+      </c>
+      <c r="D53" s="5">
+        <v>23.468</v>
+      </c>
+      <c r="E53" s="5">
+        <v>23.592752000000001</v>
+      </c>
+      <c r="F53" s="5">
+        <v>23.344351</v>
+      </c>
+      <c r="G53" s="5">
+        <v>3.147716</v>
+      </c>
+      <c r="H53" s="5">
+        <v>3.1488670000000001</v>
+      </c>
+      <c r="I53" s="5">
+        <v>3.146579</v>
+      </c>
+      <c r="J53" s="5">
+        <v>32.454777</v>
+      </c>
+      <c r="K53" s="5">
+        <v>31.363727999999998</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.932481</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C54" s="4">
+        <v>200</v>
+      </c>
+      <c r="D54" s="5">
+        <v>23.175999999999998</v>
+      </c>
+      <c r="E54" s="5">
+        <v>23.500281999999999</v>
+      </c>
+      <c r="F54" s="5">
+        <v>22.855893999999999</v>
+      </c>
+      <c r="G54" s="5">
+        <v>3.0871209999999998</v>
+      </c>
+      <c r="H54" s="5">
+        <v>3.092285</v>
+      </c>
+      <c r="I54" s="5">
+        <v>3.0820669999999999</v>
+      </c>
+      <c r="J54" s="5">
+        <v>21.410388999999999</v>
+      </c>
+      <c r="K54" s="5">
+        <v>31.292809999999999</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.91200499999999995</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C55" s="6">
+        <v>100</v>
+      </c>
+      <c r="D55" s="5">
+        <v>23.321999999999999</v>
+      </c>
+      <c r="E55" s="5">
+        <v>23.516932000000001</v>
+      </c>
+      <c r="F55" s="5">
+        <v>23.127348000000001</v>
+      </c>
+      <c r="G55" s="5">
+        <v>3.103485</v>
+      </c>
+      <c r="H55" s="5">
+        <v>3.102894</v>
+      </c>
+      <c r="I55" s="5">
+        <v>3.1040709999999998</v>
+      </c>
+      <c r="J55" s="5">
+        <v>10.695992</v>
+      </c>
+      <c r="K55" s="5">
+        <v>31.263013000000001</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.91819799999999996</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="N29:N55"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
+    <mergeCell ref="N2:N28"/>
+    <mergeCell ref="A29:A37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D790CDE-5FA9-4BF8-8A16-C8DA124F923B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB75146-CACF-4B0D-A8BD-3808611D89BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="1950" windowWidth="19050" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7560" yWindow="825" windowWidth="19050" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2368,16 +2368,36 @@
       <c r="C47" s="2">
         <v>900</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="D47" s="5">
+        <v>51.84</v>
+      </c>
+      <c r="E47" s="5">
+        <v>52.323825999999997</v>
+      </c>
+      <c r="F47" s="5">
+        <v>51.349392000000002</v>
+      </c>
+      <c r="G47" s="5">
+        <v>3.2129780000000001</v>
+      </c>
+      <c r="H47" s="5">
+        <v>3.2171720000000001</v>
+      </c>
+      <c r="I47" s="5">
+        <v>3.208809</v>
+      </c>
+      <c r="J47" s="5">
+        <v>61.606490999999998</v>
+      </c>
+      <c r="K47" s="5">
+        <v>34.046678999999997</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1.025579</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
       <c r="N47" s="11"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
@@ -2388,16 +2408,36 @@
       <c r="C48" s="4">
         <v>800</v>
       </c>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="D48" s="5">
+        <v>47.246000000000002</v>
+      </c>
+      <c r="E48" s="5">
+        <v>46.767439000000003</v>
+      </c>
+      <c r="F48" s="5">
+        <v>47.727364000000001</v>
+      </c>
+      <c r="G48" s="5">
+        <v>3.2193390000000002</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3.2200120000000001</v>
+      </c>
+      <c r="I48" s="5">
+        <v>3.2186490000000001</v>
+      </c>
+      <c r="J48" s="5">
+        <v>59.154471999999998</v>
+      </c>
+      <c r="K48" s="5">
+        <v>32.707447000000002</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1.0011239999999999</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
       <c r="N48" s="11"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB75146-CACF-4B0D-A8BD-3808611D89BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A77089-2ED2-4DED-9B14-343A838D1EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="825" windowWidth="19050" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="1815" windowWidth="19050" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>业务数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,13 +107,20 @@
     <t>AttMpls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -182,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,15 +197,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -210,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,11 +501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2720,8 +2730,755 @@
       </c>
       <c r="N55" s="11"/>
     </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C56" s="2">
+        <v>500</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2.2899409999999998</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="5">
+        <v>2.2899409999999998</v>
+      </c>
+      <c r="J56" s="5">
+        <v>66.274997999999997</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C57" s="4">
+        <v>500</v>
+      </c>
+      <c r="D57" s="5">
+        <v>10.141999999999999</v>
+      </c>
+      <c r="E57" s="5">
+        <v>17.13</v>
+      </c>
+      <c r="F57" s="5">
+        <v>8.3949999999999996</v>
+      </c>
+      <c r="G57" s="5">
+        <v>2.5338310000000002</v>
+      </c>
+      <c r="H57" s="5">
+        <v>2.954809</v>
+      </c>
+      <c r="I57" s="5">
+        <v>2.4386220000000001</v>
+      </c>
+      <c r="J57" s="5">
+        <v>77.994200000000006</v>
+      </c>
+      <c r="K57" s="5">
+        <v>31.517135</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="M57" s="5">
+        <v>11.152056999999999</v>
+      </c>
+      <c r="N57" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C58" s="4">
+        <v>500</v>
+      </c>
+      <c r="D58" s="5">
+        <v>18.248000000000001</v>
+      </c>
+      <c r="E58" s="5">
+        <v>28.93</v>
+      </c>
+      <c r="F58" s="5">
+        <v>11.126666999999999</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2.6410119999999999</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2.8818069999999998</v>
+      </c>
+      <c r="I58" s="5">
+        <v>2.5126400000000002</v>
+      </c>
+      <c r="J58" s="5">
+        <v>82.279906999999994</v>
+      </c>
+      <c r="K58" s="5">
+        <v>32.672423999999999</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.95578300000000005</v>
+      </c>
+      <c r="M58" s="5">
+        <v>13.775532999999999</v>
+      </c>
+      <c r="N58" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C59" s="4">
+        <v>500</v>
+      </c>
+      <c r="D59" s="5">
+        <v>26.372</v>
+      </c>
+      <c r="E59" s="5">
+        <v>37.283332999999999</v>
+      </c>
+      <c r="F59" s="5">
+        <v>10.005000000000001</v>
+      </c>
+      <c r="G59" s="5">
+        <v>2.711957</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2.8743560000000001</v>
+      </c>
+      <c r="I59" s="5">
+        <v>2.5421969999999998</v>
+      </c>
+      <c r="J59" s="5">
+        <v>83.875775000000004</v>
+      </c>
+      <c r="K59" s="5">
+        <v>33.717379999999999</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.96965199999999996</v>
+      </c>
+      <c r="M59" s="5">
+        <v>13.534990000000001</v>
+      </c>
+      <c r="N59" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C60" s="4">
+        <v>500</v>
+      </c>
+      <c r="D60" s="5">
+        <v>38.29</v>
+      </c>
+      <c r="E60" s="5">
+        <v>45.975000000000001</v>
+      </c>
+      <c r="F60" s="5">
+        <v>7.55</v>
+      </c>
+      <c r="G60" s="5">
+        <v>2.8104040000000001</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2.91106</v>
+      </c>
+      <c r="I60" s="5">
+        <v>2.5751219999999999</v>
+      </c>
+      <c r="J60" s="5">
+        <v>84.146795999999995</v>
+      </c>
+      <c r="K60" s="5">
+        <v>34.732917</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.99923600000000001</v>
+      </c>
+      <c r="M60" s="5">
+        <v>11.443212000000001</v>
+      </c>
+      <c r="N60" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C61" s="4">
+        <v>500</v>
+      </c>
+      <c r="D61" s="5">
+        <v>52.433999999999997</v>
+      </c>
+      <c r="E61" s="5">
+        <v>52.433999999999997</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61" s="5">
+        <v>2.9932729999999999</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2.9932729999999999</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="5">
+        <v>83.694916000000006</v>
+      </c>
+      <c r="K61" s="5">
+        <v>35.576042000000001</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1.040764</v>
+      </c>
+      <c r="M61" s="5">
+        <v>7.115265</v>
+      </c>
+      <c r="N61" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C62" s="4">
+        <v>500</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2.3018130000000001</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="5">
+        <v>2.3018130000000001</v>
+      </c>
+      <c r="J62" s="5">
+        <v>66.785875000000004</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C63" s="4">
+        <v>500</v>
+      </c>
+      <c r="D63" s="5">
+        <v>17.404</v>
+      </c>
+      <c r="E63" s="5">
+        <v>86.18</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="G63" s="5">
+        <v>2.2174200000000002</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2.8726479999999999</v>
+      </c>
+      <c r="I63" s="5">
+        <v>2.194734</v>
+      </c>
+      <c r="J63" s="5">
+        <v>56.161754999999999</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0</v>
+      </c>
+      <c r="N63" s="12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C64" s="4">
+        <v>500</v>
+      </c>
+      <c r="D64" s="5">
+        <v>34.415999999999997</v>
+      </c>
+      <c r="E64" s="5">
+        <v>86.015000000000001</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1.6667000000000001E-2</v>
+      </c>
+      <c r="G64" s="5">
+        <v>2.2217159999999998</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2.8693240000000002</v>
+      </c>
+      <c r="I64" s="5">
+        <v>2.161327</v>
+      </c>
+      <c r="J64" s="5">
+        <v>47.539633000000002</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0</v>
+      </c>
+      <c r="N64" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C65" s="4">
+        <v>500</v>
+      </c>
+      <c r="D65" s="5">
+        <v>51.588000000000001</v>
+      </c>
+      <c r="E65" s="5">
+        <v>85.976667000000006</v>
+      </c>
+      <c r="F65" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G65" s="5">
+        <v>2.2803640000000001</v>
+      </c>
+      <c r="H65" s="5">
+        <v>2.871048</v>
+      </c>
+      <c r="I65" s="5">
+        <v>2.1561080000000001</v>
+      </c>
+      <c r="J65" s="5">
+        <v>40.264577000000003</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0</v>
+      </c>
+      <c r="N65" s="12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C66" s="4">
+        <v>500</v>
+      </c>
+      <c r="D66" s="5">
+        <v>68.421999999999997</v>
+      </c>
+      <c r="E66" s="5">
+        <v>85.527500000000003</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2.409621</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2.854984</v>
+      </c>
+      <c r="I66" s="5">
+        <v>2.1518000000000002</v>
+      </c>
+      <c r="J66" s="5">
+        <v>31.780996999999999</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+      <c r="N66" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C67" s="4">
+        <v>500</v>
+      </c>
+      <c r="D67" s="5">
+        <v>85.658000000000001</v>
+      </c>
+      <c r="E67" s="5">
+        <v>85.658000000000001</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0</v>
+      </c>
+      <c r="G67" s="5">
+        <v>2.860061</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2.860061</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="5">
+        <v>24.144099000000001</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C68" s="4">
+        <v>500</v>
+      </c>
+      <c r="D68" s="5">
+        <v>58.49</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5">
+        <v>58.49</v>
+      </c>
+      <c r="G68" s="5">
+        <v>3.2798600000000002</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="5">
+        <v>3.2798600000000002</v>
+      </c>
+      <c r="J68" s="5">
+        <v>79.389567999999997</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C69" s="4">
+        <v>500</v>
+      </c>
+      <c r="D69" s="5">
+        <v>58.576000000000001</v>
+      </c>
+      <c r="E69" s="5">
+        <v>59.17</v>
+      </c>
+      <c r="F69" s="5">
+        <v>58.427500000000002</v>
+      </c>
+      <c r="G69" s="5">
+        <v>3.2878769999999999</v>
+      </c>
+      <c r="H69" s="5">
+        <v>3.2821449999999999</v>
+      </c>
+      <c r="I69" s="5">
+        <v>3.2892839999999999</v>
+      </c>
+      <c r="J69" s="5">
+        <v>79.171261999999999</v>
+      </c>
+      <c r="K69" s="5">
+        <v>40.395265999999999</v>
+      </c>
+      <c r="L69" s="5">
+        <v>1.1950769999999999</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C70" s="4">
+        <v>500</v>
+      </c>
+      <c r="D70" s="5">
+        <v>59.085999999999999</v>
+      </c>
+      <c r="E70" s="5">
+        <v>59.244999999999997</v>
+      </c>
+      <c r="F70" s="5">
+        <v>58.98</v>
+      </c>
+      <c r="G70" s="5">
+        <v>3.2897789999999998</v>
+      </c>
+      <c r="H70" s="5">
+        <v>3.2822969999999998</v>
+      </c>
+      <c r="I70" s="5">
+        <v>3.2947340000000001</v>
+      </c>
+      <c r="J70" s="5">
+        <v>79.291482999999999</v>
+      </c>
+      <c r="K70" s="5">
+        <v>40.309857999999998</v>
+      </c>
+      <c r="L70" s="5">
+        <v>1.1926760000000001</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C71" s="4">
+        <v>500</v>
+      </c>
+      <c r="D71" s="5">
+        <v>58.28</v>
+      </c>
+      <c r="E71" s="5">
+        <v>58.013333000000003</v>
+      </c>
+      <c r="F71" s="5">
+        <v>58.68</v>
+      </c>
+      <c r="G71" s="5">
+        <v>3.283893</v>
+      </c>
+      <c r="H71" s="5">
+        <v>3.2804060000000002</v>
+      </c>
+      <c r="I71" s="5">
+        <v>3.2892060000000001</v>
+      </c>
+      <c r="J71" s="5">
+        <v>79.384073999999998</v>
+      </c>
+      <c r="K71" s="5">
+        <v>40.374467000000003</v>
+      </c>
+      <c r="L71" s="5">
+        <v>1.185416</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="9"/>
+      <c r="B72" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C72" s="4">
+        <v>500</v>
+      </c>
+      <c r="D72" s="5">
+        <v>59.048000000000002</v>
+      </c>
+      <c r="E72" s="5">
+        <v>59.22</v>
+      </c>
+      <c r="F72" s="5">
+        <v>58.36</v>
+      </c>
+      <c r="G72" s="5">
+        <v>3.2860670000000001</v>
+      </c>
+      <c r="H72" s="5">
+        <v>3.2879170000000002</v>
+      </c>
+      <c r="I72" s="5">
+        <v>3.2788179999999998</v>
+      </c>
+      <c r="J72" s="5">
+        <v>78.959428000000003</v>
+      </c>
+      <c r="K72" s="5">
+        <v>39.780240999999997</v>
+      </c>
+      <c r="L72" s="5">
+        <v>1.1826570000000001</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+      <c r="B73" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C73" s="4">
+        <v>500</v>
+      </c>
+      <c r="D73" s="5">
+        <v>58.777999999999999</v>
+      </c>
+      <c r="E73" s="5">
+        <v>58.777999999999999</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0</v>
+      </c>
+      <c r="G73" s="5">
+        <v>3.2970989999999998</v>
+      </c>
+      <c r="H73" s="5">
+        <v>3.2970989999999998</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="5">
+        <v>79.715316000000001</v>
+      </c>
+      <c r="K73" s="5">
+        <v>40.038564000000001</v>
+      </c>
+      <c r="L73" s="5">
+        <v>1.197322</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A68:A73"/>
     <mergeCell ref="A38:A46"/>
     <mergeCell ref="A47:A55"/>
     <mergeCell ref="N29:N55"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A77089-2ED2-4DED-9B14-343A838D1EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7834DA-B5C9-4F0E-98EA-8013FB0ACA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1815" windowWidth="19050" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12270" yWindow="1995" windowWidth="16365" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,6 +206,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -218,9 +224,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -501,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -555,7 +565,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
@@ -594,12 +604,12 @@
       <c r="M2" s="3">
         <v>21.552382000000001</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4">
         <v>50000</v>
       </c>
@@ -636,10 +646,10 @@
       <c r="M3" s="5">
         <v>20.353908000000001</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4">
         <v>50000</v>
       </c>
@@ -676,10 +686,10 @@
       <c r="M4" s="5">
         <v>18.329294999999998</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4">
         <v>50000</v>
       </c>
@@ -716,10 +726,10 @@
       <c r="M5" s="5">
         <v>16.109870999999998</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4">
         <v>50000</v>
       </c>
@@ -756,10 +766,10 @@
       <c r="M6" s="5">
         <v>13.779595</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4">
         <v>50000</v>
       </c>
@@ -796,10 +806,10 @@
       <c r="M7" s="5">
         <v>9.9934440000000002</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4">
         <v>50000</v>
       </c>
@@ -836,10 +846,10 @@
       <c r="M8" s="5">
         <v>5.7622980000000004</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4">
         <v>50000</v>
       </c>
@@ -876,10 +886,10 @@
       <c r="M9" s="5">
         <v>2.2862909999999999</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="6">
         <v>50000</v>
       </c>
@@ -916,10 +926,10 @@
       <c r="M10" s="7">
         <v>2.2348979999999998</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
@@ -958,10 +968,10 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4">
         <v>50000</v>
       </c>
@@ -998,10 +1008,10 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4">
         <v>50000</v>
       </c>
@@ -1038,10 +1048,10 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4">
         <v>50000</v>
       </c>
@@ -1078,10 +1088,10 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4">
         <v>50000</v>
       </c>
@@ -1118,10 +1128,10 @@
       <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4">
         <v>50000</v>
       </c>
@@ -1158,10 +1168,10 @@
       <c r="M16" s="5">
         <v>0</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4">
         <v>50000</v>
       </c>
@@ -1198,10 +1208,10 @@
       <c r="M17" s="5">
         <v>0</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4">
         <v>50000</v>
       </c>
@@ -1238,10 +1248,10 @@
       <c r="M18" s="5">
         <v>0</v>
       </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="6">
         <v>50000</v>
       </c>
@@ -1278,10 +1288,10 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="11"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="2">
@@ -1320,10 +1330,10 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="11"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="4">
         <v>50000</v>
       </c>
@@ -1360,10 +1370,10 @@
       <c r="M21" s="5">
         <v>0</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="4">
         <v>50000</v>
       </c>
@@ -1400,10 +1410,10 @@
       <c r="M22" s="5">
         <v>0</v>
       </c>
-      <c r="N22" s="11"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="4">
         <v>50000</v>
       </c>
@@ -1440,10 +1450,10 @@
       <c r="M23" s="5">
         <v>0</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="4">
         <v>50000</v>
       </c>
@@ -1480,10 +1490,10 @@
       <c r="M24" s="5">
         <v>0</v>
       </c>
-      <c r="N24" s="11"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="4">
         <v>50000</v>
       </c>
@@ -1520,10 +1530,10 @@
       <c r="M25" s="5">
         <v>0</v>
       </c>
-      <c r="N25" s="11"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="4">
         <v>50000</v>
       </c>
@@ -1560,10 +1570,10 @@
       <c r="M26" s="5">
         <v>0</v>
       </c>
-      <c r="N26" s="11"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="4">
         <v>50000</v>
       </c>
@@ -1600,10 +1610,10 @@
       <c r="M27" s="5">
         <v>0</v>
       </c>
-      <c r="N27" s="11"/>
+      <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="6">
         <v>50000</v>
       </c>
@@ -1640,1396 +1650,1364 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="B29" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1600</v>
+      </c>
+      <c r="D29" s="16">
+        <v>32.548000000000002</v>
+      </c>
+      <c r="E29" s="16">
+        <v>43.588000000000001</v>
+      </c>
+      <c r="F29" s="16">
+        <v>21.507999999999999</v>
+      </c>
+      <c r="G29" s="16">
+        <v>2.6956060000000002</v>
+      </c>
+      <c r="H29" s="16">
+        <v>2.7499820000000001</v>
+      </c>
+      <c r="I29" s="16">
+        <v>2.6565259999999999</v>
+      </c>
+      <c r="J29" s="16">
+        <v>83.281790000000001</v>
+      </c>
+      <c r="K29" s="16">
+        <v>30.654993999999999</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0.85538499999999995</v>
+      </c>
+      <c r="M29" s="16">
+        <v>8.3164510000000007</v>
+      </c>
+      <c r="N29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
+      <c r="B30" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D30" s="16">
+        <v>28.443999999999999</v>
+      </c>
+      <c r="E30" s="16">
+        <v>39.003999999999998</v>
+      </c>
+      <c r="F30" s="16">
+        <v>17.884</v>
+      </c>
+      <c r="G30" s="16">
+        <v>2.7326709999999999</v>
+      </c>
+      <c r="H30" s="16">
+        <v>2.797069</v>
+      </c>
+      <c r="I30" s="16">
+        <v>2.6848359999999998</v>
+      </c>
+      <c r="J30" s="16">
+        <v>80.488788</v>
+      </c>
+      <c r="K30" s="16">
+        <v>30.191707000000001</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0.85661399999999999</v>
+      </c>
+      <c r="M30" s="16">
+        <v>7.3143890000000003</v>
+      </c>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
+      <c r="B31" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1200</v>
+      </c>
+      <c r="D31" s="16">
+        <v>23.981999999999999</v>
+      </c>
+      <c r="E31" s="16">
+        <v>33.932000000000002</v>
+      </c>
+      <c r="F31" s="16">
+        <v>14.032</v>
+      </c>
+      <c r="G31" s="16">
+        <v>2.7625690000000001</v>
+      </c>
+      <c r="H31" s="16">
+        <v>2.8719800000000002</v>
+      </c>
+      <c r="I31" s="16">
+        <v>2.6784849999999998</v>
+      </c>
+      <c r="J31" s="16">
+        <v>77.048519999999996</v>
+      </c>
+      <c r="K31" s="16">
+        <v>29.790973000000001</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0.86377700000000002</v>
+      </c>
+      <c r="M31" s="16">
+        <v>6.6983579999999998</v>
+      </c>
+      <c r="N31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D32" s="16">
+        <v>18.068000000000001</v>
+      </c>
+      <c r="E32" s="16">
+        <v>27.056000000000001</v>
+      </c>
+      <c r="F32" s="16">
+        <v>9.08</v>
+      </c>
+      <c r="G32" s="16">
+        <v>2.7934380000000001</v>
+      </c>
+      <c r="H32" s="16">
+        <v>2.951689</v>
+      </c>
+      <c r="I32" s="16">
+        <v>2.6664759999999998</v>
+      </c>
+      <c r="J32" s="16">
+        <v>72.155029999999996</v>
+      </c>
+      <c r="K32" s="16">
+        <v>29.064741999999999</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0.86910500000000002</v>
+      </c>
+      <c r="M32" s="16">
+        <v>5.5786369999999996</v>
+      </c>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C33" s="4">
         <v>900</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D33" s="5">
         <v>14.353999999999999</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E33" s="5">
         <v>22.261216000000001</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F33" s="5">
         <v>6.3991980000000002</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G33" s="5">
         <v>2.8161269999999998</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H33" s="5">
         <v>2.9950239999999999</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I33" s="5">
         <v>2.666652</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J33" s="5">
         <v>68.417297000000005</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K33" s="5">
         <v>28.752683999999999</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L33" s="5">
         <v>0.87285199999999996</v>
       </c>
-      <c r="M29" s="5">
+      <c r="M33" s="5">
         <v>4.9013730000000004</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N33" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C30" s="4">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C34" s="4">
         <v>800</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D34" s="5">
         <v>11.512</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E34" s="5">
         <v>18.579584000000001</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F34" s="5">
         <v>4.4166569999999998</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G34" s="5">
         <v>2.8285870000000002</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H34" s="5">
         <v>3.0238779999999998</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I34" s="5">
         <v>2.6615790000000001</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J34" s="5">
         <v>64.903525999999999</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K34" s="5">
         <v>28.143954999999998</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L34" s="5">
         <v>0.85768599999999995</v>
       </c>
-      <c r="M30" s="5">
+      <c r="M34" s="5">
         <v>4.4108470000000004</v>
       </c>
-      <c r="N30" s="11"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C35" s="4">
         <v>700</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D35" s="5">
         <v>7.968</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E35" s="5">
         <v>13.34268</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F35" s="5">
         <v>2.6083479999999999</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G35" s="5">
         <v>2.8392729999999999</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H35" s="5">
         <v>3.0701670000000001</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I35" s="5">
         <v>2.6344020000000001</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J35" s="5">
         <v>59.412269999999999</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K35" s="5">
         <v>27.856455</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L35" s="5">
         <v>0.85333300000000001</v>
       </c>
-      <c r="M31" s="5">
+      <c r="M35" s="5">
         <v>3.6604809999999999</v>
       </c>
-      <c r="N31" s="11"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C36" s="4">
         <v>600</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D36" s="5">
         <v>5.6639999999999997</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E36" s="5">
         <v>9.8318290000000008</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F36" s="5">
         <v>1.444842</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G36" s="5">
         <v>2.8419690000000002</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H36" s="5">
         <v>3.0921959999999999</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I36" s="5">
         <v>2.610217</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J36" s="5">
         <v>54.059823000000002</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K36" s="5">
         <v>27.049257000000001</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L36" s="5">
         <v>0.83820499999999998</v>
       </c>
-      <c r="M32" s="5">
+      <c r="M36" s="5">
         <v>2.8338570000000001</v>
       </c>
-      <c r="N32" s="11"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
+      <c r="B37" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C37" s="4">
         <v>500</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D37" s="5">
         <v>3.3759999999999999</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E37" s="5">
         <v>6.200088</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F37" s="5">
         <v>0.57015300000000002</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G37" s="5">
         <v>2.8421720000000001</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H37" s="5">
         <v>3.1174379999999999</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I37" s="5">
         <v>2.5841690000000002</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J37" s="5">
         <v>46.341493999999997</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K37" s="5">
         <v>25.995743999999998</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L37" s="5">
         <v>0.80989599999999995</v>
       </c>
-      <c r="M33" s="5">
+      <c r="M37" s="5">
         <v>2.0572629999999998</v>
       </c>
-      <c r="N33" s="11"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
+      <c r="B38" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C38" s="4">
         <v>400</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D38" s="5">
         <v>2.11</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E38" s="5">
         <v>4.0565429999999996</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F38" s="5">
         <v>0.16781199999999999</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G38" s="5">
         <v>2.8510779999999998</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H38" s="5">
         <v>3.1449980000000002</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I38" s="5">
         <v>2.5692390000000001</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J38" s="5">
         <v>38.809716000000002</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K38" s="5">
         <v>25.529322000000001</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L38" s="5">
         <v>0.79874000000000001</v>
       </c>
-      <c r="M34" s="5">
+      <c r="M38" s="5">
         <v>1.647578</v>
       </c>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
+      <c r="B39" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C39" s="4">
         <v>300</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D39" s="5">
         <v>1.722</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E39" s="5">
         <v>3.4127109999999998</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F39" s="5">
         <v>1.6071999999999999E-2</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G39" s="5">
         <v>2.8503120000000002</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H39" s="5">
         <v>3.1467529999999999</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I39" s="5">
         <v>2.5613649999999999</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J39" s="5">
         <v>29.245232000000001</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K39" s="5">
         <v>25.029026999999999</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L39" s="5">
         <v>0.78291100000000002</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M39" s="5">
         <v>1.3500939999999999</v>
       </c>
-      <c r="N35" s="11"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
+      <c r="B40" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C40" s="4">
         <v>200</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D40" s="5">
         <v>1.6819999999999999</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E40" s="5">
         <v>3.3489960000000001</v>
       </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F40" s="5">
+        <v>0</v>
+      </c>
+      <c r="G40" s="5">
         <v>2.8457150000000002</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H40" s="5">
         <v>3.1377570000000001</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I40" s="5">
         <v>2.5609130000000002</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J40" s="5">
         <v>19.410855999999999</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K40" s="5">
         <v>25.100550999999999</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L40" s="5">
         <v>0.78093199999999996</v>
       </c>
-      <c r="M36" s="5">
+      <c r="M40" s="5">
         <v>1.2340960000000001</v>
       </c>
-      <c r="N36" s="11"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C41" s="6">
         <v>100</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D41" s="5">
         <v>1.952</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E41" s="5">
         <v>3.906657</v>
       </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F41" s="5">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5">
         <v>2.8475440000000001</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H41" s="5">
         <v>3.1453739999999999</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I41" s="5">
         <v>2.5617380000000001</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J41" s="5">
         <v>9.7726349999999993</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K41" s="5">
         <v>25.035098999999999</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L41" s="5">
         <v>0.782605</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M41" s="5">
         <v>1.0724450000000001</v>
       </c>
-      <c r="N37" s="11"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="B42" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C42" s="2">
         <v>900</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D42" s="5">
         <v>42.73</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E42" s="5">
         <v>85.438372000000001</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F42" s="5">
         <v>0.17169799999999999</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G42" s="5">
         <v>2.5956169999999998</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H42" s="5">
         <v>2.8991470000000001</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I42" s="5">
         <v>2.551498</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J42" s="5">
         <v>33.915081999999998</v>
       </c>
-      <c r="K38" s="5">
-        <v>0</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" s="11"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C43" s="4">
         <v>800</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D43" s="5">
         <v>42.58</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E43" s="5">
         <v>85.158062999999999</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F43" s="5">
         <v>3.5985999999999997E-2</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G43" s="5">
         <v>2.6148899999999999</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H43" s="5">
         <v>2.942437</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I43" s="5">
         <v>2.5662970000000001</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J43" s="5">
         <v>30.871237000000001</v>
       </c>
-      <c r="K39" s="5">
-        <v>0</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0</v>
-      </c>
-      <c r="M39" s="5">
-        <v>0</v>
-      </c>
-      <c r="N39" s="11"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
-      <c r="B40" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C44" s="4">
         <v>700</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D44" s="5">
         <v>42.594000000000001</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E44" s="5">
         <v>84.674115999999998</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F44" s="5">
         <v>1.6095000000000002E-2</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G44" s="5">
         <v>2.611278</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H44" s="5">
         <v>2.9651010000000002</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I44" s="5">
         <v>2.5564010000000001</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J44" s="5">
         <v>26.724537999999999</v>
       </c>
-      <c r="K40" s="5">
-        <v>0</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0</v>
-      </c>
-      <c r="M40" s="5">
-        <v>0</v>
-      </c>
-      <c r="N40" s="11"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C45" s="4">
         <v>600</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D45" s="5">
         <v>42.64</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E45" s="5">
         <v>84.811839000000006</v>
       </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="F45" s="5">
+        <v>0</v>
+      </c>
+      <c r="G45" s="5">
         <v>2.6063459999999998</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H45" s="5">
         <v>2.9243060000000001</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I45" s="5">
         <v>2.5575169999999998</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J45" s="5">
         <v>22.941410999999999</v>
       </c>
-      <c r="K41" s="5">
-        <v>0</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0</v>
-      </c>
-      <c r="M41" s="5">
-        <v>0</v>
-      </c>
-      <c r="N41" s="11"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="K45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C46" s="4">
         <v>500</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D46" s="5">
         <v>42.781999999999996</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E46" s="5">
         <v>85.386396000000005</v>
       </c>
-      <c r="F42" s="5">
-        <v>0</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="F46" s="5">
+        <v>0</v>
+      </c>
+      <c r="G46" s="5">
         <v>2.6081300000000001</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H46" s="5">
         <v>2.9344440000000001</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I46" s="5">
         <v>2.5602450000000001</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J46" s="5">
         <v>18.733664000000001</v>
       </c>
-      <c r="K42" s="5">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0</v>
-      </c>
-      <c r="N42" s="11"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
-      <c r="B43" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="K46" s="5">
+        <v>0</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C47" s="4">
         <v>400</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D47" s="5">
         <v>42.56</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E47" s="5">
         <v>84.892488</v>
       </c>
-      <c r="F43" s="5">
-        <v>0</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="F47" s="5">
+        <v>0</v>
+      </c>
+      <c r="G47" s="5">
         <v>2.6040220000000001</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H47" s="5">
         <v>2.9325320000000001</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I47" s="5">
         <v>2.554125</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J47" s="5">
         <v>15.445611</v>
       </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="K47" s="5">
+        <v>0</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C48" s="4">
         <v>300</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D48" s="5">
         <v>42.597999999999999</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E48" s="5">
         <v>84.870098999999996</v>
       </c>
-      <c r="F44" s="5">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F48" s="5">
+        <v>0</v>
+      </c>
+      <c r="G48" s="5">
         <v>2.6160589999999999</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H48" s="5">
         <v>2.9595729999999998</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I48" s="5">
         <v>2.563685</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J48" s="5">
         <v>11.60177</v>
       </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="11"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
-      <c r="B45" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="K48" s="5">
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C49" s="4">
         <v>200</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D49" s="5">
         <v>42.262</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E49" s="5">
         <v>84.673024999999996</v>
       </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="F49" s="5">
+        <v>0</v>
+      </c>
+      <c r="G49" s="5">
         <v>2.6035710000000001</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H49" s="5">
         <v>2.9397389999999999</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I49" s="5">
         <v>2.5522279999999999</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J49" s="5">
         <v>7.6788210000000001</v>
       </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0</v>
-      </c>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
-      <c r="B46" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C46" s="6">
+      <c r="K49" s="5">
+        <v>0</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C50" s="6">
         <v>100</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D50" s="5">
         <v>42.576000000000001</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E50" s="5">
         <v>84.931179</v>
       </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5">
+      <c r="F50" s="5">
+        <v>0</v>
+      </c>
+      <c r="G50" s="5">
         <v>2.601909</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H50" s="5">
         <v>2.945459</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I50" s="5">
         <v>2.5498699999999999</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J50" s="5">
         <v>3.847585</v>
       </c>
-      <c r="K46" s="5">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5">
-        <v>0</v>
-      </c>
-      <c r="N46" s="11"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="K50" s="5">
+        <v>0</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="B51" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C51" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="15"/>
+      <c r="B52" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C52" s="2">
         <v>900</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D52" s="5">
         <v>51.84</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E52" s="5">
         <v>52.323825999999997</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F52" s="5">
         <v>51.349392000000002</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G52" s="5">
         <v>3.2129780000000001</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H52" s="5">
         <v>3.2171720000000001</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I52" s="5">
         <v>3.208809</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J52" s="5">
         <v>61.606490999999998</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K52" s="5">
         <v>34.046678999999997</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L52" s="5">
         <v>1.025579</v>
       </c>
-      <c r="M47" s="5">
-        <v>0</v>
-      </c>
-      <c r="N47" s="11"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="15"/>
+      <c r="B53" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C53" s="4">
         <v>800</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D53" s="5">
         <v>47.246000000000002</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E53" s="5">
         <v>46.767439000000003</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F53" s="5">
         <v>47.727364000000001</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G53" s="5">
         <v>3.2193390000000002</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H53" s="5">
         <v>3.2200120000000001</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I53" s="5">
         <v>3.2186490000000001</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J53" s="5">
         <v>59.154471999999998</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K53" s="5">
         <v>32.707447000000002</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L53" s="5">
         <v>1.0011239999999999</v>
       </c>
-      <c r="M48" s="5">
-        <v>0</v>
-      </c>
-      <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="M53" s="5">
+        <v>0</v>
+      </c>
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="15"/>
+      <c r="B54" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C54" s="4">
         <v>700</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D54" s="5">
         <v>43.223999999999997</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E54" s="5">
         <v>43.285136000000001</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F54" s="5">
         <v>43.163024999999998</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G54" s="5">
         <v>3.2280540000000002</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H54" s="5">
         <v>3.2203740000000001</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I54" s="5">
         <v>3.235697</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J54" s="5">
         <v>57.084159999999997</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K54" s="5">
         <v>32.455140999999998</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L54" s="5">
         <v>0.998552</v>
       </c>
-      <c r="M49" s="5">
-        <v>0</v>
-      </c>
-      <c r="N49" s="11"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="13"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="15"/>
+      <c r="B55" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C55" s="4">
         <v>600</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D55" s="5">
         <v>37.954000000000001</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E55" s="5">
         <v>38.059941000000002</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F55" s="5">
         <v>37.848415000000003</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G55" s="5">
         <v>3.2384520000000001</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H55" s="5">
         <v>3.2413479999999999</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I55" s="5">
         <v>3.235576</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J55" s="5">
         <v>53.755561999999998</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K55" s="5">
         <v>33.013896000000003</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L55" s="5">
         <v>1.015622</v>
       </c>
-      <c r="M50" s="5">
-        <v>0</v>
-      </c>
-      <c r="N50" s="11"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="13"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="15"/>
+      <c r="B56" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C56" s="4">
         <v>500</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D56" s="5">
         <v>31.85</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E56" s="5">
         <v>31.817819</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F56" s="5">
         <v>31.882314999999998</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G56" s="5">
         <v>3.258518</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H56" s="5">
         <v>3.2581519999999999</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I56" s="5">
         <v>3.2588849999999998</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J56" s="5">
         <v>49.598843000000002</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K56" s="5">
         <v>32.068112999999997</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L56" s="5">
         <v>0.99587300000000001</v>
       </c>
-      <c r="M51" s="5">
-        <v>0</v>
-      </c>
-      <c r="N51" s="11"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="13"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="15"/>
+      <c r="B57" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C57" s="4">
         <v>400</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D57" s="5">
         <v>25.617999999999999</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E57" s="5">
         <v>25.859300000000001</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F57" s="5">
         <v>25.378546</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G57" s="5">
         <v>3.2317629999999999</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H57" s="5">
         <v>3.233806</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I57" s="5">
         <v>3.2297479999999998</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J57" s="5">
         <v>43.070247999999999</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K57" s="5">
         <v>31.834434999999999</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L57" s="5">
         <v>0.97465299999999999</v>
       </c>
-      <c r="M52" s="5">
-        <v>0</v>
-      </c>
-      <c r="N52" s="11"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="13"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="15"/>
+      <c r="B58" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C58" s="4">
         <v>300</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D58" s="5">
         <v>23.468</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E58" s="5">
         <v>23.592752000000001</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F58" s="5">
         <v>23.344351</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G58" s="5">
         <v>3.147716</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H58" s="5">
         <v>3.1488670000000001</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I58" s="5">
         <v>3.146579</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J58" s="5">
         <v>32.454777</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K58" s="5">
         <v>31.363727999999998</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L58" s="5">
         <v>0.932481</v>
       </c>
-      <c r="M53" s="5">
-        <v>0</v>
-      </c>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="13"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C59" s="4">
         <v>200</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D59" s="5">
         <v>23.175999999999998</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E59" s="5">
         <v>23.500281999999999</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F59" s="5">
         <v>22.855893999999999</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G59" s="5">
         <v>3.0871209999999998</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H59" s="5">
         <v>3.092285</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I59" s="5">
         <v>3.0820669999999999</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J59" s="5">
         <v>21.410388999999999</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K59" s="5">
         <v>31.292809999999999</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L59" s="5">
         <v>0.91200499999999995</v>
       </c>
-      <c r="M54" s="5">
-        <v>0</v>
-      </c>
-      <c r="N54" s="11"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
-      <c r="B55" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C55" s="6">
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="13"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="6">
+        <v>50000</v>
+      </c>
+      <c r="C60" s="6">
         <v>100</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D60" s="5">
         <v>23.321999999999999</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E60" s="5">
         <v>23.516932000000001</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F60" s="5">
         <v>23.127348000000001</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G60" s="5">
         <v>3.103485</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H60" s="5">
         <v>3.102894</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I60" s="5">
         <v>3.1040709999999998</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J60" s="5">
         <v>10.695992</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K60" s="5">
         <v>31.263013000000001</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L60" s="5">
         <v>0.91819799999999996</v>
       </c>
-      <c r="M55" s="5">
-        <v>0</v>
-      </c>
-      <c r="N55" s="11"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="13"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="B61" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C61" s="2">
         <v>500</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D61" s="5">
         <v>2.3940000000000001</v>
       </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56" s="5">
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61" s="5">
         <v>2.3940000000000001</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G61" s="5">
         <v>2.2899409999999998</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H61" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I61" s="5">
         <v>2.2899409999999998</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J61" s="5">
         <v>66.274997999999997</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K61" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L61" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M61" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N56" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="9"/>
-      <c r="B57" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C57" s="4">
-        <v>500</v>
-      </c>
-      <c r="D57" s="5">
-        <v>10.141999999999999</v>
-      </c>
-      <c r="E57" s="5">
-        <v>17.13</v>
-      </c>
-      <c r="F57" s="5">
-        <v>8.3949999999999996</v>
-      </c>
-      <c r="G57" s="5">
-        <v>2.5338310000000002</v>
-      </c>
-      <c r="H57" s="5">
-        <v>2.954809</v>
-      </c>
-      <c r="I57" s="5">
-        <v>2.4386220000000001</v>
-      </c>
-      <c r="J57" s="5">
-        <v>77.994200000000006</v>
-      </c>
-      <c r="K57" s="5">
-        <v>31.517135</v>
-      </c>
-      <c r="L57" s="5">
-        <v>0.95330000000000004</v>
-      </c>
-      <c r="M57" s="5">
-        <v>11.152056999999999</v>
-      </c>
-      <c r="N57" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="9"/>
-      <c r="B58" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C58" s="4">
-        <v>500</v>
-      </c>
-      <c r="D58" s="5">
-        <v>18.248000000000001</v>
-      </c>
-      <c r="E58" s="5">
-        <v>28.93</v>
-      </c>
-      <c r="F58" s="5">
-        <v>11.126666999999999</v>
-      </c>
-      <c r="G58" s="5">
-        <v>2.6410119999999999</v>
-      </c>
-      <c r="H58" s="5">
-        <v>2.8818069999999998</v>
-      </c>
-      <c r="I58" s="5">
-        <v>2.5126400000000002</v>
-      </c>
-      <c r="J58" s="5">
-        <v>82.279906999999994</v>
-      </c>
-      <c r="K58" s="5">
-        <v>32.672423999999999</v>
-      </c>
-      <c r="L58" s="5">
-        <v>0.95578300000000005</v>
-      </c>
-      <c r="M58" s="5">
-        <v>13.775532999999999</v>
-      </c>
-      <c r="N58" s="12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
-      <c r="B59" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C59" s="4">
-        <v>500</v>
-      </c>
-      <c r="D59" s="5">
-        <v>26.372</v>
-      </c>
-      <c r="E59" s="5">
-        <v>37.283332999999999</v>
-      </c>
-      <c r="F59" s="5">
-        <v>10.005000000000001</v>
-      </c>
-      <c r="G59" s="5">
-        <v>2.711957</v>
-      </c>
-      <c r="H59" s="5">
-        <v>2.8743560000000001</v>
-      </c>
-      <c r="I59" s="5">
-        <v>2.5421969999999998</v>
-      </c>
-      <c r="J59" s="5">
-        <v>83.875775000000004</v>
-      </c>
-      <c r="K59" s="5">
-        <v>33.717379999999999</v>
-      </c>
-      <c r="L59" s="5">
-        <v>0.96965199999999996</v>
-      </c>
-      <c r="M59" s="5">
-        <v>13.534990000000001</v>
-      </c>
-      <c r="N59" s="12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C60" s="4">
-        <v>500</v>
-      </c>
-      <c r="D60" s="5">
-        <v>38.29</v>
-      </c>
-      <c r="E60" s="5">
-        <v>45.975000000000001</v>
-      </c>
-      <c r="F60" s="5">
-        <v>7.55</v>
-      </c>
-      <c r="G60" s="5">
-        <v>2.8104040000000001</v>
-      </c>
-      <c r="H60" s="5">
-        <v>2.91106</v>
-      </c>
-      <c r="I60" s="5">
-        <v>2.5751219999999999</v>
-      </c>
-      <c r="J60" s="5">
-        <v>84.146795999999995</v>
-      </c>
-      <c r="K60" s="5">
-        <v>34.732917</v>
-      </c>
-      <c r="L60" s="5">
-        <v>0.99923600000000001</v>
-      </c>
-      <c r="M60" s="5">
-        <v>11.443212000000001</v>
-      </c>
-      <c r="N60" s="12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C61" s="4">
-        <v>500</v>
-      </c>
-      <c r="D61" s="5">
-        <v>52.433999999999997</v>
-      </c>
-      <c r="E61" s="5">
-        <v>52.433999999999997</v>
-      </c>
-      <c r="F61" s="5">
-        <v>0</v>
-      </c>
-      <c r="G61" s="5">
-        <v>2.9932729999999999</v>
-      </c>
-      <c r="H61" s="5">
-        <v>2.9932729999999999</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J61" s="5">
-        <v>83.694916000000006</v>
-      </c>
-      <c r="K61" s="5">
-        <v>35.576042000000001</v>
-      </c>
-      <c r="L61" s="5">
-        <v>1.040764</v>
-      </c>
-      <c r="M61" s="5">
-        <v>7.115265</v>
-      </c>
-      <c r="N61" s="12">
-        <v>1</v>
+      <c r="N61" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="4">
         <v>50000</v>
       </c>
       <c r="C62" s="4">
         <v>500</v>
       </c>
       <c r="D62" s="5">
-        <v>2.7080000000000002</v>
+        <v>10.141999999999999</v>
       </c>
       <c r="E62" s="5">
-        <v>0</v>
+        <v>17.13</v>
       </c>
       <c r="F62" s="5">
-        <v>2.7080000000000002</v>
+        <v>8.3949999999999996</v>
       </c>
       <c r="G62" s="5">
-        <v>2.3018130000000001</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>19</v>
+        <v>2.5338310000000002</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2.954809</v>
       </c>
       <c r="I62" s="5">
-        <v>2.3018130000000001</v>
+        <v>2.4386220000000001</v>
       </c>
       <c r="J62" s="5">
-        <v>66.785875000000004</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M62" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N62" s="12">
-        <v>0</v>
+        <v>77.994200000000006</v>
+      </c>
+      <c r="K62" s="5">
+        <v>31.517135</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="M62" s="5">
+        <v>11.152056999999999</v>
+      </c>
+      <c r="N62" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="4">
         <v>50000</v>
       </c>
@@ -3037,41 +3015,41 @@
         <v>500</v>
       </c>
       <c r="D63" s="5">
-        <v>17.404</v>
+        <v>18.248000000000001</v>
       </c>
       <c r="E63" s="5">
-        <v>86.18</v>
+        <v>28.93</v>
       </c>
       <c r="F63" s="5">
-        <v>0.21</v>
+        <v>11.126666999999999</v>
       </c>
       <c r="G63" s="5">
-        <v>2.2174200000000002</v>
+        <v>2.6410119999999999</v>
       </c>
       <c r="H63" s="5">
-        <v>2.8726479999999999</v>
+        <v>2.8818069999999998</v>
       </c>
       <c r="I63" s="5">
-        <v>2.194734</v>
+        <v>2.5126400000000002</v>
       </c>
       <c r="J63" s="5">
-        <v>56.161754999999999</v>
+        <v>82.279906999999994</v>
       </c>
       <c r="K63" s="5">
-        <v>0</v>
+        <v>32.672423999999999</v>
       </c>
       <c r="L63" s="5">
-        <v>0</v>
+        <v>0.95578300000000005</v>
       </c>
       <c r="M63" s="5">
-        <v>0</v>
-      </c>
-      <c r="N63" s="12">
-        <v>0.2</v>
+        <v>13.775532999999999</v>
+      </c>
+      <c r="N63" s="9">
+        <v>0.4</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="4">
         <v>50000</v>
       </c>
@@ -3079,41 +3057,41 @@
         <v>500</v>
       </c>
       <c r="D64" s="5">
-        <v>34.415999999999997</v>
+        <v>26.372</v>
       </c>
       <c r="E64" s="5">
-        <v>86.015000000000001</v>
+        <v>37.283332999999999</v>
       </c>
       <c r="F64" s="5">
-        <v>1.6667000000000001E-2</v>
+        <v>10.005000000000001</v>
       </c>
       <c r="G64" s="5">
-        <v>2.2217159999999998</v>
+        <v>2.711957</v>
       </c>
       <c r="H64" s="5">
-        <v>2.8693240000000002</v>
+        <v>2.8743560000000001</v>
       </c>
       <c r="I64" s="5">
-        <v>2.161327</v>
+        <v>2.5421969999999998</v>
       </c>
       <c r="J64" s="5">
-        <v>47.539633000000002</v>
+        <v>83.875775000000004</v>
       </c>
       <c r="K64" s="5">
-        <v>0</v>
+        <v>33.717379999999999</v>
       </c>
       <c r="L64" s="5">
-        <v>0</v>
+        <v>0.96965199999999996</v>
       </c>
       <c r="M64" s="5">
-        <v>0</v>
-      </c>
-      <c r="N64" s="12">
-        <v>0.4</v>
+        <v>13.534990000000001</v>
+      </c>
+      <c r="N64" s="9">
+        <v>0.6</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="4">
         <v>50000</v>
       </c>
@@ -3121,41 +3099,41 @@
         <v>500</v>
       </c>
       <c r="D65" s="5">
-        <v>51.588000000000001</v>
+        <v>38.29</v>
       </c>
       <c r="E65" s="5">
-        <v>85.976667000000006</v>
+        <v>45.975000000000001</v>
       </c>
       <c r="F65" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>7.55</v>
       </c>
       <c r="G65" s="5">
-        <v>2.2803640000000001</v>
+        <v>2.8104040000000001</v>
       </c>
       <c r="H65" s="5">
-        <v>2.871048</v>
+        <v>2.91106</v>
       </c>
       <c r="I65" s="5">
-        <v>2.1561080000000001</v>
+        <v>2.5751219999999999</v>
       </c>
       <c r="J65" s="5">
-        <v>40.264577000000003</v>
+        <v>84.146795999999995</v>
       </c>
       <c r="K65" s="5">
-        <v>0</v>
+        <v>34.732917</v>
       </c>
       <c r="L65" s="5">
-        <v>0</v>
+        <v>0.99923600000000001</v>
       </c>
       <c r="M65" s="5">
-        <v>0</v>
-      </c>
-      <c r="N65" s="12">
-        <v>0.6</v>
+        <v>11.443212000000001</v>
+      </c>
+      <c r="N65" s="9">
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="4">
         <v>50000</v>
       </c>
@@ -3163,85 +3141,85 @@
         <v>500</v>
       </c>
       <c r="D66" s="5">
-        <v>68.421999999999997</v>
+        <v>52.433999999999997</v>
       </c>
       <c r="E66" s="5">
-        <v>85.527500000000003</v>
+        <v>52.433999999999997</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
       </c>
       <c r="G66" s="5">
-        <v>2.409621</v>
+        <v>2.9932729999999999</v>
       </c>
       <c r="H66" s="5">
-        <v>2.854984</v>
-      </c>
-      <c r="I66" s="5">
-        <v>2.1518000000000002</v>
+        <v>2.9932729999999999</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J66" s="5">
-        <v>31.780996999999999</v>
+        <v>83.694916000000006</v>
       </c>
       <c r="K66" s="5">
-        <v>0</v>
+        <v>35.576042000000001</v>
       </c>
       <c r="L66" s="5">
-        <v>0</v>
+        <v>1.040764</v>
       </c>
       <c r="M66" s="5">
-        <v>0</v>
-      </c>
-      <c r="N66" s="12">
-        <v>0.8</v>
+        <v>7.115265</v>
+      </c>
+      <c r="N66" s="9">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
-      <c r="B67" s="4">
+      <c r="A67" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2">
         <v>50000</v>
       </c>
       <c r="C67" s="4">
         <v>500</v>
       </c>
       <c r="D67" s="5">
-        <v>85.658000000000001</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="E67" s="5">
-        <v>85.658000000000001</v>
+        <v>0</v>
       </c>
       <c r="F67" s="5">
-        <v>0</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="G67" s="5">
-        <v>2.860061</v>
-      </c>
-      <c r="H67" s="5">
-        <v>2.860061</v>
-      </c>
-      <c r="I67" s="5" t="s">
+        <v>2.3018130000000001</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="5">
+        <v>2.3018130000000001</v>
+      </c>
+      <c r="J67" s="5">
+        <v>66.785875000000004</v>
+      </c>
+      <c r="K67" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="5">
-        <v>24.144099000000001</v>
-      </c>
-      <c r="K67" s="5">
-        <v>0</v>
-      </c>
-      <c r="L67" s="5">
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-      <c r="N67" s="12">
-        <v>1</v>
+      <c r="L67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A68" s="11"/>
       <c r="B68" s="4">
         <v>50000</v>
       </c>
@@ -3249,38 +3227,41 @@
         <v>500</v>
       </c>
       <c r="D68" s="5">
-        <v>58.49</v>
+        <v>17.404</v>
       </c>
       <c r="E68" s="5">
-        <v>0</v>
+        <v>86.18</v>
       </c>
       <c r="F68" s="5">
-        <v>58.49</v>
+        <v>0.21</v>
       </c>
       <c r="G68" s="5">
-        <v>3.2798600000000002</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>18</v>
+        <v>2.2174200000000002</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2.8726479999999999</v>
       </c>
       <c r="I68" s="5">
-        <v>3.2798600000000002</v>
+        <v>2.194734</v>
       </c>
       <c r="J68" s="5">
-        <v>79.389567999999997</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>18</v>
+        <v>56.161754999999999</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0</v>
+      </c>
+      <c r="N68" s="9">
+        <v>0.2</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="4">
         <v>50000</v>
       </c>
@@ -3288,38 +3269,41 @@
         <v>500</v>
       </c>
       <c r="D69" s="5">
-        <v>58.576000000000001</v>
+        <v>34.415999999999997</v>
       </c>
       <c r="E69" s="5">
-        <v>59.17</v>
+        <v>86.015000000000001</v>
       </c>
       <c r="F69" s="5">
-        <v>58.427500000000002</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="G69" s="5">
-        <v>3.2878769999999999</v>
+        <v>2.2217159999999998</v>
       </c>
       <c r="H69" s="5">
-        <v>3.2821449999999999</v>
+        <v>2.8693240000000002</v>
       </c>
       <c r="I69" s="5">
-        <v>3.2892839999999999</v>
+        <v>2.161327</v>
       </c>
       <c r="J69" s="5">
-        <v>79.171261999999999</v>
+        <v>47.539633000000002</v>
       </c>
       <c r="K69" s="5">
-        <v>40.395265999999999</v>
+        <v>0</v>
       </c>
       <c r="L69" s="5">
-        <v>1.1950769999999999</v>
+        <v>0</v>
       </c>
       <c r="M69" s="5">
         <v>0</v>
       </c>
+      <c r="N69" s="9">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="4">
         <v>50000</v>
       </c>
@@ -3327,38 +3311,41 @@
         <v>500</v>
       </c>
       <c r="D70" s="5">
-        <v>59.085999999999999</v>
+        <v>51.588000000000001</v>
       </c>
       <c r="E70" s="5">
-        <v>59.244999999999997</v>
+        <v>85.976667000000006</v>
       </c>
       <c r="F70" s="5">
-        <v>58.98</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G70" s="5">
-        <v>3.2897789999999998</v>
+        <v>2.2803640000000001</v>
       </c>
       <c r="H70" s="5">
-        <v>3.2822969999999998</v>
+        <v>2.871048</v>
       </c>
       <c r="I70" s="5">
-        <v>3.2947340000000001</v>
+        <v>2.1561080000000001</v>
       </c>
       <c r="J70" s="5">
-        <v>79.291482999999999</v>
+        <v>40.264577000000003</v>
       </c>
       <c r="K70" s="5">
-        <v>40.309857999999998</v>
+        <v>0</v>
       </c>
       <c r="L70" s="5">
-        <v>1.1926760000000001</v>
+        <v>0</v>
       </c>
       <c r="M70" s="5">
         <v>0</v>
       </c>
+      <c r="N70" s="9">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="4">
         <v>50000</v>
       </c>
@@ -3366,38 +3353,41 @@
         <v>500</v>
       </c>
       <c r="D71" s="5">
-        <v>58.28</v>
+        <v>68.421999999999997</v>
       </c>
       <c r="E71" s="5">
-        <v>58.013333000000003</v>
+        <v>85.527500000000003</v>
       </c>
       <c r="F71" s="5">
-        <v>58.68</v>
+        <v>0</v>
       </c>
       <c r="G71" s="5">
-        <v>3.283893</v>
+        <v>2.409621</v>
       </c>
       <c r="H71" s="5">
-        <v>3.2804060000000002</v>
+        <v>2.854984</v>
       </c>
       <c r="I71" s="5">
-        <v>3.2892060000000001</v>
+        <v>2.1518000000000002</v>
       </c>
       <c r="J71" s="5">
-        <v>79.384073999999998</v>
+        <v>31.780996999999999</v>
       </c>
       <c r="K71" s="5">
-        <v>40.374467000000003</v>
+        <v>0</v>
       </c>
       <c r="L71" s="5">
-        <v>1.185416</v>
+        <v>0</v>
       </c>
       <c r="M71" s="5">
         <v>0</v>
       </c>
+      <c r="N71" s="9">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="4">
         <v>50000</v>
       </c>
@@ -3405,38 +3395,43 @@
         <v>500</v>
       </c>
       <c r="D72" s="5">
-        <v>59.048000000000002</v>
+        <v>85.658000000000001</v>
       </c>
       <c r="E72" s="5">
-        <v>59.22</v>
+        <v>85.658000000000001</v>
       </c>
       <c r="F72" s="5">
-        <v>58.36</v>
+        <v>0</v>
       </c>
       <c r="G72" s="5">
-        <v>3.2860670000000001</v>
+        <v>2.860061</v>
       </c>
       <c r="H72" s="5">
-        <v>3.2879170000000002</v>
-      </c>
-      <c r="I72" s="5">
-        <v>3.2788179999999998</v>
+        <v>2.860061</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J72" s="5">
-        <v>78.959428000000003</v>
+        <v>24.144099000000001</v>
       </c>
       <c r="K72" s="5">
-        <v>39.780240999999997</v>
+        <v>0</v>
       </c>
       <c r="L72" s="5">
-        <v>1.1826570000000001</v>
+        <v>0</v>
       </c>
       <c r="M72" s="5">
         <v>0</v>
       </c>
+      <c r="N72" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
+      <c r="A73" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="B73" s="4">
         <v>50000</v>
       </c>
@@ -3444,49 +3439,244 @@
         <v>500</v>
       </c>
       <c r="D73" s="5">
+        <v>58.49</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73" s="5">
+        <v>58.49</v>
+      </c>
+      <c r="G73" s="5">
+        <v>3.2798600000000002</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="5">
+        <v>3.2798600000000002</v>
+      </c>
+      <c r="J73" s="5">
+        <v>79.389567999999997</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C74" s="4">
+        <v>500</v>
+      </c>
+      <c r="D74" s="5">
+        <v>58.576000000000001</v>
+      </c>
+      <c r="E74" s="5">
+        <v>59.17</v>
+      </c>
+      <c r="F74" s="5">
+        <v>58.427500000000002</v>
+      </c>
+      <c r="G74" s="5">
+        <v>3.2878769999999999</v>
+      </c>
+      <c r="H74" s="5">
+        <v>3.2821449999999999</v>
+      </c>
+      <c r="I74" s="5">
+        <v>3.2892839999999999</v>
+      </c>
+      <c r="J74" s="5">
+        <v>79.171261999999999</v>
+      </c>
+      <c r="K74" s="5">
+        <v>40.395265999999999</v>
+      </c>
+      <c r="L74" s="5">
+        <v>1.1950769999999999</v>
+      </c>
+      <c r="M74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C75" s="4">
+        <v>500</v>
+      </c>
+      <c r="D75" s="5">
+        <v>59.085999999999999</v>
+      </c>
+      <c r="E75" s="5">
+        <v>59.244999999999997</v>
+      </c>
+      <c r="F75" s="5">
+        <v>58.98</v>
+      </c>
+      <c r="G75" s="5">
+        <v>3.2897789999999998</v>
+      </c>
+      <c r="H75" s="5">
+        <v>3.2822969999999998</v>
+      </c>
+      <c r="I75" s="5">
+        <v>3.2947340000000001</v>
+      </c>
+      <c r="J75" s="5">
+        <v>79.291482999999999</v>
+      </c>
+      <c r="K75" s="5">
+        <v>40.309857999999998</v>
+      </c>
+      <c r="L75" s="5">
+        <v>1.1926760000000001</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="11"/>
+      <c r="B76" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C76" s="4">
+        <v>500</v>
+      </c>
+      <c r="D76" s="5">
+        <v>58.28</v>
+      </c>
+      <c r="E76" s="5">
+        <v>58.013333000000003</v>
+      </c>
+      <c r="F76" s="5">
+        <v>58.68</v>
+      </c>
+      <c r="G76" s="5">
+        <v>3.283893</v>
+      </c>
+      <c r="H76" s="5">
+        <v>3.2804060000000002</v>
+      </c>
+      <c r="I76" s="5">
+        <v>3.2892060000000001</v>
+      </c>
+      <c r="J76" s="5">
+        <v>79.384073999999998</v>
+      </c>
+      <c r="K76" s="5">
+        <v>40.374467000000003</v>
+      </c>
+      <c r="L76" s="5">
+        <v>1.185416</v>
+      </c>
+      <c r="M76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
+      <c r="B77" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C77" s="4">
+        <v>500</v>
+      </c>
+      <c r="D77" s="5">
+        <v>59.048000000000002</v>
+      </c>
+      <c r="E77" s="5">
+        <v>59.22</v>
+      </c>
+      <c r="F77" s="5">
+        <v>58.36</v>
+      </c>
+      <c r="G77" s="5">
+        <v>3.2860670000000001</v>
+      </c>
+      <c r="H77" s="5">
+        <v>3.2879170000000002</v>
+      </c>
+      <c r="I77" s="5">
+        <v>3.2788179999999998</v>
+      </c>
+      <c r="J77" s="5">
+        <v>78.959428000000003</v>
+      </c>
+      <c r="K77" s="5">
+        <v>39.780240999999997</v>
+      </c>
+      <c r="L77" s="5">
+        <v>1.1826570000000001</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
+      <c r="B78" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C78" s="4">
+        <v>500</v>
+      </c>
+      <c r="D78" s="5">
         <v>58.777999999999999</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E78" s="5">
         <v>58.777999999999999</v>
       </c>
-      <c r="F73" s="5">
-        <v>0</v>
-      </c>
-      <c r="G73" s="5">
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
         <v>3.2970989999999998</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H78" s="5">
         <v>3.2970989999999998</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J78" s="5">
         <v>79.715316000000001</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K78" s="5">
         <v>40.038564000000001</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L78" s="5">
         <v>1.197322</v>
       </c>
-      <c r="M73" s="5">
+      <c r="M78" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A68:A73"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="N29:N55"/>
+    <mergeCell ref="N33:N60"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="N2:N28"/>
-    <mergeCell ref="A29:A37"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="A29:A41"/>
+    <mergeCell ref="A61:A66"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A73:A78"/>
+    <mergeCell ref="A42:A50"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7834DA-B5C9-4F0E-98EA-8013FB0ACA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787D3983-0DE9-4B6D-87BB-528FA45FBE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12270" yWindow="1995" windowWidth="16365" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="2235" windowWidth="20895" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>业务数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>NSFnet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttMpls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,9 +218,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,11 +504,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1662,1066 +1655,1092 @@
       <c r="C29" s="4">
         <v>1600</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <v>32.548000000000002</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>43.588000000000001</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>21.507999999999999</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <v>2.6956060000000002</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="15">
         <v>2.7499820000000001</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="15">
         <v>2.6565259999999999</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="15">
         <v>83.281790000000001</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="15">
         <v>30.654993999999999</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="15">
         <v>0.85538499999999995</v>
       </c>
-      <c r="M29" s="16">
+      <c r="M29" s="15">
         <v>8.3164510000000007</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="4">
         <v>50000</v>
       </c>
       <c r="C30" s="4">
         <v>1400</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="15">
         <v>28.443999999999999</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="15">
         <v>39.003999999999998</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <v>17.884</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>2.7326709999999999</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="15">
         <v>2.797069</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="15">
         <v>2.6848359999999998</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="15">
         <v>80.488788</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <v>30.191707000000001</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="15">
         <v>0.85661399999999999</v>
       </c>
-      <c r="M30" s="16">
+      <c r="M30" s="15">
         <v>7.3143890000000003</v>
       </c>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="4">
         <v>50000</v>
       </c>
       <c r="C31" s="4">
         <v>1200</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>23.981999999999999</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>33.932000000000002</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <v>14.032</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="15">
         <v>2.7625690000000001</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="15">
         <v>2.8719800000000002</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="15">
         <v>2.6784849999999998</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="15">
         <v>77.048519999999996</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="15">
         <v>29.790973000000001</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="15">
         <v>0.86377700000000002</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="15">
         <v>6.6983579999999998</v>
       </c>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="4">
         <v>50000</v>
       </c>
       <c r="C32" s="4">
         <v>1000</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <v>18.068000000000001</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>27.056000000000001</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>9.08</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <v>2.7934380000000001</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="15">
         <v>2.951689</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="15">
         <v>2.6664759999999998</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="15">
         <v>72.155029999999996</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="15">
         <v>29.064741999999999</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="15">
         <v>0.86910500000000002</v>
       </c>
-      <c r="M32" s="16">
+      <c r="M32" s="15">
         <v>5.5786369999999996</v>
       </c>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="4">
         <v>50000</v>
       </c>
       <c r="C33" s="4">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="D33" s="5">
-        <v>14.353999999999999</v>
+        <v>11.512</v>
       </c>
       <c r="E33" s="5">
-        <v>22.261216000000001</v>
+        <v>18.579584000000001</v>
       </c>
       <c r="F33" s="5">
-        <v>6.3991980000000002</v>
+        <v>4.4166569999999998</v>
       </c>
       <c r="G33" s="5">
-        <v>2.8161269999999998</v>
+        <v>2.8285870000000002</v>
       </c>
       <c r="H33" s="5">
-        <v>2.9950239999999999</v>
+        <v>3.0238779999999998</v>
       </c>
       <c r="I33" s="5">
-        <v>2.666652</v>
+        <v>2.6615790000000001</v>
       </c>
       <c r="J33" s="5">
-        <v>68.417297000000005</v>
+        <v>64.903525999999999</v>
       </c>
       <c r="K33" s="5">
-        <v>28.752683999999999</v>
+        <v>28.143954999999998</v>
       </c>
       <c r="L33" s="5">
-        <v>0.87285199999999996</v>
+        <v>0.85768599999999995</v>
       </c>
       <c r="M33" s="5">
-        <v>4.9013730000000004</v>
-      </c>
-      <c r="N33" s="13" t="s">
+        <v>4.4108470000000004</v>
+      </c>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="14"/>
+      <c r="B34" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C34" s="4">
+        <v>600</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="E34" s="5">
+        <v>9.8318290000000008</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1.444842</v>
+      </c>
+      <c r="G34" s="5">
+        <v>2.8419690000000002</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3.0921959999999999</v>
+      </c>
+      <c r="I34" s="5">
+        <v>2.610217</v>
+      </c>
+      <c r="J34" s="5">
+        <v>54.059823000000002</v>
+      </c>
+      <c r="K34" s="5">
+        <v>27.049257000000001</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.83820499999999998</v>
+      </c>
+      <c r="M34" s="5">
+        <v>2.8338570000000001</v>
+      </c>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="14"/>
+      <c r="B35" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C35" s="4">
+        <v>400</v>
+      </c>
+      <c r="D35" s="5">
+        <v>2.11</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4.0565429999999996</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.16781199999999999</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.8510779999999998</v>
+      </c>
+      <c r="H35" s="5">
+        <v>3.1449980000000002</v>
+      </c>
+      <c r="I35" s="5">
+        <v>2.5692390000000001</v>
+      </c>
+      <c r="J35" s="5">
+        <v>38.809716000000002</v>
+      </c>
+      <c r="K35" s="5">
+        <v>25.529322000000001</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.79874000000000001</v>
+      </c>
+      <c r="M35" s="5">
+        <v>1.647578</v>
+      </c>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C36" s="4">
+        <v>200</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.6819999999999999</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3.3489960000000001</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2.8457150000000002</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3.1377570000000001</v>
+      </c>
+      <c r="I36" s="5">
+        <v>2.5609130000000002</v>
+      </c>
+      <c r="J36" s="5">
+        <v>19.410855999999999</v>
+      </c>
+      <c r="K36" s="5">
+        <v>25.100550999999999</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.78093199999999996</v>
+      </c>
+      <c r="M36" s="5">
+        <v>1.2340960000000001</v>
+      </c>
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1600</v>
+      </c>
+      <c r="D37" s="5">
+        <v>46.155999999999999</v>
+      </c>
+      <c r="E37" s="5">
+        <v>89.38</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2.9319999999999999</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2.6338119999999998</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2.7410549999999998</v>
+      </c>
+      <c r="I37" s="5">
+        <v>2.6220789999999998</v>
+      </c>
+      <c r="J37" s="5">
+        <v>54.234527</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D38" s="5">
+        <v>44.957999999999998</v>
+      </c>
+      <c r="E38" s="5">
+        <v>88.236000000000004</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1.68</v>
+      </c>
+      <c r="G38" s="5">
+        <v>2.6441629999999998</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2.7939479999999999</v>
+      </c>
+      <c r="I38" s="5">
+        <v>2.6262409999999998</v>
+      </c>
+      <c r="J38" s="5">
+        <v>49.592039</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C39" s="4">
+        <v>1200</v>
+      </c>
+      <c r="D39" s="5">
+        <v>43.87</v>
+      </c>
+      <c r="E39" s="5">
+        <v>87.004000000000005</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G39" s="5">
+        <v>2.6174059999999999</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2.881656</v>
+      </c>
+      <c r="I39" s="5">
+        <v>2.5828090000000001</v>
+      </c>
+      <c r="J39" s="5">
+        <v>43.546802</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="5">
+        <v>43.146000000000001</v>
+      </c>
+      <c r="E40" s="5">
+        <v>85.963999999999999</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2.617213</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2.8961239999999999</v>
+      </c>
+      <c r="I40" s="5">
+        <v>2.5779359999999998</v>
+      </c>
+      <c r="J40" s="5">
+        <v>37.198753000000004</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>800</v>
+      </c>
+      <c r="D41" s="5">
+        <v>42.58</v>
+      </c>
+      <c r="E41" s="5">
+        <v>85.158062999999999</v>
+      </c>
+      <c r="F41" s="5">
+        <v>3.5985999999999997E-2</v>
+      </c>
+      <c r="G41" s="5">
+        <v>2.6148899999999999</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2.942437</v>
+      </c>
+      <c r="I41" s="5">
+        <v>2.5662970000000001</v>
+      </c>
+      <c r="J41" s="5">
+        <v>30.871237000000001</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0</v>
+      </c>
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C42" s="4">
+        <v>600</v>
+      </c>
+      <c r="D42" s="5">
+        <v>42.64</v>
+      </c>
+      <c r="E42" s="5">
+        <v>84.811839000000006</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2.6063459999999998</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2.9243060000000001</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2.5575169999999998</v>
+      </c>
+      <c r="J42" s="5">
+        <v>22.941410999999999</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0</v>
+      </c>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C43" s="4">
+        <v>400</v>
+      </c>
+      <c r="D43" s="5">
+        <v>42.56</v>
+      </c>
+      <c r="E43" s="5">
+        <v>84.892488</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>2.6040220000000001</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2.9325320000000001</v>
+      </c>
+      <c r="I43" s="5">
+        <v>2.554125</v>
+      </c>
+      <c r="J43" s="5">
+        <v>15.445611</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="14"/>
+      <c r="B44" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C44" s="4">
+        <v>200</v>
+      </c>
+      <c r="D44" s="5">
+        <v>42.262</v>
+      </c>
+      <c r="E44" s="5">
+        <v>84.673024999999996</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2.6035710000000001</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2.9397389999999999</v>
+      </c>
+      <c r="I44" s="5">
+        <v>2.5522279999999999</v>
+      </c>
+      <c r="J44" s="5">
+        <v>7.6788210000000001</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="13"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1600</v>
+      </c>
+      <c r="D45" s="5">
+        <v>67.227999999999994</v>
+      </c>
+      <c r="E45" s="5">
+        <v>67.552000000000007</v>
+      </c>
+      <c r="F45" s="5">
+        <v>66.903999999999996</v>
+      </c>
+      <c r="G45" s="5">
+        <v>3.1844869999999998</v>
+      </c>
+      <c r="H45" s="5">
+        <v>3.1857739999999999</v>
+      </c>
+      <c r="I45" s="5">
+        <v>3.1832250000000002</v>
+      </c>
+      <c r="J45" s="5">
+        <v>72.309675999999996</v>
+      </c>
+      <c r="K45" s="5">
+        <v>34.387501999999998</v>
+      </c>
+      <c r="L45" s="5">
+        <v>1.028969</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0</v>
+      </c>
+      <c r="N45" s="13"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D46" s="5">
+        <v>64.278000000000006</v>
+      </c>
+      <c r="E46" s="5">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="F46" s="5">
+        <v>64.096000000000004</v>
+      </c>
+      <c r="G46" s="5">
+        <v>3.1726390000000002</v>
+      </c>
+      <c r="H46" s="5">
+        <v>3.17462</v>
+      </c>
+      <c r="I46" s="5">
+        <v>3.170677</v>
+      </c>
+      <c r="J46" s="5">
+        <v>70.024840999999995</v>
+      </c>
+      <c r="K46" s="5">
+        <v>33.995990999999997</v>
+      </c>
+      <c r="L46" s="5">
+        <v>1.0207649999999999</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0</v>
+      </c>
+      <c r="N46" s="13"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1200</v>
+      </c>
+      <c r="D47" s="5">
+        <v>60.05</v>
+      </c>
+      <c r="E47" s="5">
+        <v>60.427999999999997</v>
+      </c>
+      <c r="F47" s="5">
+        <v>59.671999999999997</v>
+      </c>
+      <c r="G47" s="5">
+        <v>3.187109</v>
+      </c>
+      <c r="H47" s="5">
+        <v>3.188669</v>
+      </c>
+      <c r="I47" s="5">
+        <v>3.185578</v>
+      </c>
+      <c r="J47" s="5">
+        <v>67.709235000000007</v>
+      </c>
+      <c r="K47" s="5">
+        <v>33.746239000000003</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1.014505</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0</v>
+      </c>
+      <c r="N47" s="13"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D48" s="5">
+        <v>54.616</v>
+      </c>
+      <c r="E48" s="5">
+        <v>54.5</v>
+      </c>
+      <c r="F48" s="5">
+        <v>54.731999999999999</v>
+      </c>
+      <c r="G48" s="5">
+        <v>3.1948919999999998</v>
+      </c>
+      <c r="H48" s="5">
+        <v>3.2029450000000002</v>
+      </c>
+      <c r="I48" s="5">
+        <v>3.1867990000000002</v>
+      </c>
+      <c r="J48" s="5">
+        <v>63.593404</v>
+      </c>
+      <c r="K48" s="5">
+        <v>33.605640999999999</v>
+      </c>
+      <c r="L48" s="5">
+        <v>1.0103740000000001</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0</v>
+      </c>
+      <c r="N48" s="13"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C49" s="4">
+        <v>800</v>
+      </c>
+      <c r="D49" s="5">
+        <v>47.246000000000002</v>
+      </c>
+      <c r="E49" s="5">
+        <v>46.767439000000003</v>
+      </c>
+      <c r="F49" s="5">
+        <v>47.727364000000001</v>
+      </c>
+      <c r="G49" s="5">
+        <v>3.2193390000000002</v>
+      </c>
+      <c r="H49" s="5">
+        <v>3.2200120000000001</v>
+      </c>
+      <c r="I49" s="5">
+        <v>3.2186490000000001</v>
+      </c>
+      <c r="J49" s="5">
+        <v>59.154471999999998</v>
+      </c>
+      <c r="K49" s="5">
+        <v>32.707447000000002</v>
+      </c>
+      <c r="L49" s="5">
+        <v>1.0011239999999999</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0</v>
+      </c>
+      <c r="N49" s="13"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C50" s="4">
+        <v>600</v>
+      </c>
+      <c r="D50" s="5">
+        <v>37.954000000000001</v>
+      </c>
+      <c r="E50" s="5">
+        <v>38.059941000000002</v>
+      </c>
+      <c r="F50" s="5">
+        <v>37.848415000000003</v>
+      </c>
+      <c r="G50" s="5">
+        <v>3.2384520000000001</v>
+      </c>
+      <c r="H50" s="5">
+        <v>3.2413479999999999</v>
+      </c>
+      <c r="I50" s="5">
+        <v>3.235576</v>
+      </c>
+      <c r="J50" s="5">
+        <v>53.755561999999998</v>
+      </c>
+      <c r="K50" s="5">
+        <v>33.013896000000003</v>
+      </c>
+      <c r="L50" s="5">
+        <v>1.015622</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0</v>
+      </c>
+      <c r="N50" s="13"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C51" s="4">
+        <v>400</v>
+      </c>
+      <c r="D51" s="5">
+        <v>25.617999999999999</v>
+      </c>
+      <c r="E51" s="5">
+        <v>25.859300000000001</v>
+      </c>
+      <c r="F51" s="5">
+        <v>25.378546</v>
+      </c>
+      <c r="G51" s="5">
+        <v>3.2317629999999999</v>
+      </c>
+      <c r="H51" s="5">
+        <v>3.233806</v>
+      </c>
+      <c r="I51" s="5">
+        <v>3.2297479999999998</v>
+      </c>
+      <c r="J51" s="5">
+        <v>43.070247999999999</v>
+      </c>
+      <c r="K51" s="5">
+        <v>31.834434999999999</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.97465299999999999</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C52" s="4">
+        <v>200</v>
+      </c>
+      <c r="D52" s="5">
+        <v>23.175999999999998</v>
+      </c>
+      <c r="E52" s="5">
+        <v>23.500281999999999</v>
+      </c>
+      <c r="F52" s="5">
+        <v>22.855893999999999</v>
+      </c>
+      <c r="G52" s="5">
+        <v>3.0871209999999998</v>
+      </c>
+      <c r="H52" s="5">
+        <v>3.092285</v>
+      </c>
+      <c r="I52" s="5">
+        <v>3.0820669999999999</v>
+      </c>
+      <c r="J52" s="5">
+        <v>21.410388999999999</v>
+      </c>
+      <c r="K52" s="5">
+        <v>31.292809999999999</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.91200499999999995</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0</v>
+      </c>
+      <c r="N52" s="13"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C53" s="2">
+        <v>500</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0</v>
+      </c>
+      <c r="F53" s="5">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2.2899409999999998</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C34" s="4">
-        <v>800</v>
-      </c>
-      <c r="D34" s="5">
-        <v>11.512</v>
-      </c>
-      <c r="E34" s="5">
-        <v>18.579584000000001</v>
-      </c>
-      <c r="F34" s="5">
-        <v>4.4166569999999998</v>
-      </c>
-      <c r="G34" s="5">
-        <v>2.8285870000000002</v>
-      </c>
-      <c r="H34" s="5">
-        <v>3.0238779999999998</v>
-      </c>
-      <c r="I34" s="5">
-        <v>2.6615790000000001</v>
-      </c>
-      <c r="J34" s="5">
-        <v>64.903525999999999</v>
-      </c>
-      <c r="K34" s="5">
-        <v>28.143954999999998</v>
-      </c>
-      <c r="L34" s="5">
-        <v>0.85768599999999995</v>
-      </c>
-      <c r="M34" s="5">
-        <v>4.4108470000000004</v>
-      </c>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C35" s="4">
-        <v>700</v>
-      </c>
-      <c r="D35" s="5">
-        <v>7.968</v>
-      </c>
-      <c r="E35" s="5">
-        <v>13.34268</v>
-      </c>
-      <c r="F35" s="5">
-        <v>2.6083479999999999</v>
-      </c>
-      <c r="G35" s="5">
-        <v>2.8392729999999999</v>
-      </c>
-      <c r="H35" s="5">
-        <v>3.0701670000000001</v>
-      </c>
-      <c r="I35" s="5">
-        <v>2.6344020000000001</v>
-      </c>
-      <c r="J35" s="5">
-        <v>59.412269999999999</v>
-      </c>
-      <c r="K35" s="5">
-        <v>27.856455</v>
-      </c>
-      <c r="L35" s="5">
-        <v>0.85333300000000001</v>
-      </c>
-      <c r="M35" s="5">
-        <v>3.6604809999999999</v>
-      </c>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C36" s="4">
-        <v>600</v>
-      </c>
-      <c r="D36" s="5">
-        <v>5.6639999999999997</v>
-      </c>
-      <c r="E36" s="5">
-        <v>9.8318290000000008</v>
-      </c>
-      <c r="F36" s="5">
-        <v>1.444842</v>
-      </c>
-      <c r="G36" s="5">
-        <v>2.8419690000000002</v>
-      </c>
-      <c r="H36" s="5">
-        <v>3.0921959999999999</v>
-      </c>
-      <c r="I36" s="5">
-        <v>2.610217</v>
-      </c>
-      <c r="J36" s="5">
-        <v>54.059823000000002</v>
-      </c>
-      <c r="K36" s="5">
-        <v>27.049257000000001</v>
-      </c>
-      <c r="L36" s="5">
-        <v>0.83820499999999998</v>
-      </c>
-      <c r="M36" s="5">
-        <v>2.8338570000000001</v>
-      </c>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
-      <c r="B37" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="I53" s="5">
+        <v>2.2899409999999998</v>
+      </c>
+      <c r="J53" s="5">
+        <v>66.274997999999997</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C54" s="4">
         <v>500</v>
       </c>
-      <c r="D37" s="5">
-        <v>3.3759999999999999</v>
-      </c>
-      <c r="E37" s="5">
-        <v>6.200088</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0.57015300000000002</v>
-      </c>
-      <c r="G37" s="5">
-        <v>2.8421720000000001</v>
-      </c>
-      <c r="H37" s="5">
-        <v>3.1174379999999999</v>
-      </c>
-      <c r="I37" s="5">
-        <v>2.5841690000000002</v>
-      </c>
-      <c r="J37" s="5">
-        <v>46.341493999999997</v>
-      </c>
-      <c r="K37" s="5">
-        <v>25.995743999999998</v>
-      </c>
-      <c r="L37" s="5">
-        <v>0.80989599999999995</v>
-      </c>
-      <c r="M37" s="5">
-        <v>2.0572629999999998</v>
-      </c>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C38" s="4">
-        <v>400</v>
-      </c>
-      <c r="D38" s="5">
-        <v>2.11</v>
-      </c>
-      <c r="E38" s="5">
-        <v>4.0565429999999996</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0.16781199999999999</v>
-      </c>
-      <c r="G38" s="5">
-        <v>2.8510779999999998</v>
-      </c>
-      <c r="H38" s="5">
-        <v>3.1449980000000002</v>
-      </c>
-      <c r="I38" s="5">
-        <v>2.5692390000000001</v>
-      </c>
-      <c r="J38" s="5">
-        <v>38.809716000000002</v>
-      </c>
-      <c r="K38" s="5">
-        <v>25.529322000000001</v>
-      </c>
-      <c r="L38" s="5">
-        <v>0.79874000000000001</v>
-      </c>
-      <c r="M38" s="5">
-        <v>1.647578</v>
-      </c>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
-      <c r="B39" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C39" s="4">
-        <v>300</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1.722</v>
-      </c>
-      <c r="E39" s="5">
-        <v>3.4127109999999998</v>
-      </c>
-      <c r="F39" s="5">
-        <v>1.6071999999999999E-2</v>
-      </c>
-      <c r="G39" s="5">
-        <v>2.8503120000000002</v>
-      </c>
-      <c r="H39" s="5">
-        <v>3.1467529999999999</v>
-      </c>
-      <c r="I39" s="5">
-        <v>2.5613649999999999</v>
-      </c>
-      <c r="J39" s="5">
-        <v>29.245232000000001</v>
-      </c>
-      <c r="K39" s="5">
-        <v>25.029026999999999</v>
-      </c>
-      <c r="L39" s="5">
-        <v>0.78291100000000002</v>
-      </c>
-      <c r="M39" s="5">
-        <v>1.3500939999999999</v>
-      </c>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
-      <c r="B40" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C40" s="4">
-        <v>200</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1.6819999999999999</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3.3489960000000001</v>
-      </c>
-      <c r="F40" s="5">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
-        <v>2.8457150000000002</v>
-      </c>
-      <c r="H40" s="5">
-        <v>3.1377570000000001</v>
-      </c>
-      <c r="I40" s="5">
-        <v>2.5609130000000002</v>
-      </c>
-      <c r="J40" s="5">
-        <v>19.410855999999999</v>
-      </c>
-      <c r="K40" s="5">
-        <v>25.100550999999999</v>
-      </c>
-      <c r="L40" s="5">
-        <v>0.78093199999999996</v>
-      </c>
-      <c r="M40" s="5">
-        <v>1.2340960000000001</v>
-      </c>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C41" s="6">
-        <v>100</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1.952</v>
-      </c>
-      <c r="E41" s="5">
-        <v>3.906657</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
-        <v>2.8475440000000001</v>
-      </c>
-      <c r="H41" s="5">
-        <v>3.1453739999999999</v>
-      </c>
-      <c r="I41" s="5">
-        <v>2.5617380000000001</v>
-      </c>
-      <c r="J41" s="5">
-        <v>9.7726349999999993</v>
-      </c>
-      <c r="K41" s="5">
-        <v>25.035098999999999</v>
-      </c>
-      <c r="L41" s="5">
-        <v>0.782605</v>
-      </c>
-      <c r="M41" s="5">
-        <v>1.0724450000000001</v>
-      </c>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C42" s="2">
-        <v>900</v>
-      </c>
-      <c r="D42" s="5">
-        <v>42.73</v>
-      </c>
-      <c r="E42" s="5">
-        <v>85.438372000000001</v>
-      </c>
-      <c r="F42" s="5">
-        <v>0.17169799999999999</v>
-      </c>
-      <c r="G42" s="5">
-        <v>2.5956169999999998</v>
-      </c>
-      <c r="H42" s="5">
-        <v>2.8991470000000001</v>
-      </c>
-      <c r="I42" s="5">
-        <v>2.551498</v>
-      </c>
-      <c r="J42" s="5">
-        <v>33.915081999999998</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0</v>
-      </c>
-      <c r="M42" s="5">
-        <v>0</v>
-      </c>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C43" s="4">
-        <v>800</v>
-      </c>
-      <c r="D43" s="5">
-        <v>42.58</v>
-      </c>
-      <c r="E43" s="5">
-        <v>85.158062999999999</v>
-      </c>
-      <c r="F43" s="5">
-        <v>3.5985999999999997E-2</v>
-      </c>
-      <c r="G43" s="5">
-        <v>2.6148899999999999</v>
-      </c>
-      <c r="H43" s="5">
-        <v>2.942437</v>
-      </c>
-      <c r="I43" s="5">
-        <v>2.5662970000000001</v>
-      </c>
-      <c r="J43" s="5">
-        <v>30.871237000000001</v>
-      </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="5">
-        <v>0</v>
-      </c>
-      <c r="M43" s="5">
-        <v>0</v>
-      </c>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C44" s="4">
-        <v>700</v>
-      </c>
-      <c r="D44" s="5">
-        <v>42.594000000000001</v>
-      </c>
-      <c r="E44" s="5">
-        <v>84.674115999999998</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1.6095000000000002E-2</v>
-      </c>
-      <c r="G44" s="5">
-        <v>2.611278</v>
-      </c>
-      <c r="H44" s="5">
-        <v>2.9651010000000002</v>
-      </c>
-      <c r="I44" s="5">
-        <v>2.5564010000000001</v>
-      </c>
-      <c r="J44" s="5">
-        <v>26.724537999999999</v>
-      </c>
-      <c r="K44" s="5">
-        <v>0</v>
-      </c>
-      <c r="L44" s="5">
-        <v>0</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C45" s="4">
-        <v>600</v>
-      </c>
-      <c r="D45" s="5">
-        <v>42.64</v>
-      </c>
-      <c r="E45" s="5">
-        <v>84.811839000000006</v>
-      </c>
-      <c r="F45" s="5">
-        <v>0</v>
-      </c>
-      <c r="G45" s="5">
-        <v>2.6063459999999998</v>
-      </c>
-      <c r="H45" s="5">
-        <v>2.9243060000000001</v>
-      </c>
-      <c r="I45" s="5">
-        <v>2.5575169999999998</v>
-      </c>
-      <c r="J45" s="5">
-        <v>22.941410999999999</v>
-      </c>
-      <c r="K45" s="5">
-        <v>0</v>
-      </c>
-      <c r="L45" s="5">
-        <v>0</v>
-      </c>
-      <c r="M45" s="5">
-        <v>0</v>
-      </c>
-      <c r="N45" s="13"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="D54" s="5">
+        <v>10.141999999999999</v>
+      </c>
+      <c r="E54" s="5">
+        <v>17.13</v>
+      </c>
+      <c r="F54" s="5">
+        <v>8.3949999999999996</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2.5338310000000002</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2.954809</v>
+      </c>
+      <c r="I54" s="5">
+        <v>2.4386220000000001</v>
+      </c>
+      <c r="J54" s="5">
+        <v>77.994200000000006</v>
+      </c>
+      <c r="K54" s="5">
+        <v>31.517135</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.95330000000000004</v>
+      </c>
+      <c r="M54" s="5">
+        <v>11.152056999999999</v>
+      </c>
+      <c r="N54" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C55" s="4">
         <v>500</v>
       </c>
-      <c r="D46" s="5">
-        <v>42.781999999999996</v>
-      </c>
-      <c r="E46" s="5">
-        <v>85.386396000000005</v>
-      </c>
-      <c r="F46" s="5">
-        <v>0</v>
-      </c>
-      <c r="G46" s="5">
-        <v>2.6081300000000001</v>
-      </c>
-      <c r="H46" s="5">
-        <v>2.9344440000000001</v>
-      </c>
-      <c r="I46" s="5">
-        <v>2.5602450000000001</v>
-      </c>
-      <c r="J46" s="5">
-        <v>18.733664000000001</v>
-      </c>
-      <c r="K46" s="5">
-        <v>0</v>
-      </c>
-      <c r="L46" s="5">
-        <v>0</v>
-      </c>
-      <c r="M46" s="5">
-        <v>0</v>
-      </c>
-      <c r="N46" s="13"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C47" s="4">
-        <v>400</v>
-      </c>
-      <c r="D47" s="5">
-        <v>42.56</v>
-      </c>
-      <c r="E47" s="5">
-        <v>84.892488</v>
-      </c>
-      <c r="F47" s="5">
-        <v>0</v>
-      </c>
-      <c r="G47" s="5">
-        <v>2.6040220000000001</v>
-      </c>
-      <c r="H47" s="5">
-        <v>2.9325320000000001</v>
-      </c>
-      <c r="I47" s="5">
-        <v>2.554125</v>
-      </c>
-      <c r="J47" s="5">
-        <v>15.445611</v>
-      </c>
-      <c r="K47" s="5">
-        <v>0</v>
-      </c>
-      <c r="L47" s="5">
-        <v>0</v>
-      </c>
-      <c r="M47" s="5">
-        <v>0</v>
-      </c>
-      <c r="N47" s="13"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C48" s="4">
-        <v>300</v>
-      </c>
-      <c r="D48" s="5">
-        <v>42.597999999999999</v>
-      </c>
-      <c r="E48" s="5">
-        <v>84.870098999999996</v>
-      </c>
-      <c r="F48" s="5">
-        <v>0</v>
-      </c>
-      <c r="G48" s="5">
-        <v>2.6160589999999999</v>
-      </c>
-      <c r="H48" s="5">
-        <v>2.9595729999999998</v>
-      </c>
-      <c r="I48" s="5">
-        <v>2.563685</v>
-      </c>
-      <c r="J48" s="5">
-        <v>11.60177</v>
-      </c>
-      <c r="K48" s="5">
-        <v>0</v>
-      </c>
-      <c r="L48" s="5">
-        <v>0</v>
-      </c>
-      <c r="M48" s="5">
-        <v>0</v>
-      </c>
-      <c r="N48" s="13"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C49" s="4">
-        <v>200</v>
-      </c>
-      <c r="D49" s="5">
-        <v>42.262</v>
-      </c>
-      <c r="E49" s="5">
-        <v>84.673024999999996</v>
-      </c>
-      <c r="F49" s="5">
-        <v>0</v>
-      </c>
-      <c r="G49" s="5">
-        <v>2.6035710000000001</v>
-      </c>
-      <c r="H49" s="5">
-        <v>2.9397389999999999</v>
-      </c>
-      <c r="I49" s="5">
-        <v>2.5522279999999999</v>
-      </c>
-      <c r="J49" s="5">
-        <v>7.6788210000000001</v>
-      </c>
-      <c r="K49" s="5">
-        <v>0</v>
-      </c>
-      <c r="L49" s="5">
-        <v>0</v>
-      </c>
-      <c r="M49" s="5">
-        <v>0</v>
-      </c>
-      <c r="N49" s="13"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C50" s="6">
-        <v>100</v>
-      </c>
-      <c r="D50" s="5">
-        <v>42.576000000000001</v>
-      </c>
-      <c r="E50" s="5">
-        <v>84.931179</v>
-      </c>
-      <c r="F50" s="5">
-        <v>0</v>
-      </c>
-      <c r="G50" s="5">
-        <v>2.601909</v>
-      </c>
-      <c r="H50" s="5">
-        <v>2.945459</v>
-      </c>
-      <c r="I50" s="5">
-        <v>2.5498699999999999</v>
-      </c>
-      <c r="J50" s="5">
-        <v>3.847585</v>
-      </c>
-      <c r="K50" s="5">
-        <v>0</v>
-      </c>
-      <c r="L50" s="5">
-        <v>0</v>
-      </c>
-      <c r="M50" s="5">
-        <v>0</v>
-      </c>
-      <c r="N50" s="13"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C51" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="13"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="15"/>
-      <c r="B52" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C52" s="2">
-        <v>900</v>
-      </c>
-      <c r="D52" s="5">
-        <v>51.84</v>
-      </c>
-      <c r="E52" s="5">
-        <v>52.323825999999997</v>
-      </c>
-      <c r="F52" s="5">
-        <v>51.349392000000002</v>
-      </c>
-      <c r="G52" s="5">
-        <v>3.2129780000000001</v>
-      </c>
-      <c r="H52" s="5">
-        <v>3.2171720000000001</v>
-      </c>
-      <c r="I52" s="5">
-        <v>3.208809</v>
-      </c>
-      <c r="J52" s="5">
-        <v>61.606490999999998</v>
-      </c>
-      <c r="K52" s="5">
-        <v>34.046678999999997</v>
-      </c>
-      <c r="L52" s="5">
-        <v>1.025579</v>
-      </c>
-      <c r="M52" s="5">
-        <v>0</v>
-      </c>
-      <c r="N52" s="13"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="15"/>
-      <c r="B53" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C53" s="4">
-        <v>800</v>
-      </c>
-      <c r="D53" s="5">
-        <v>47.246000000000002</v>
-      </c>
-      <c r="E53" s="5">
-        <v>46.767439000000003</v>
-      </c>
-      <c r="F53" s="5">
-        <v>47.727364000000001</v>
-      </c>
-      <c r="G53" s="5">
-        <v>3.2193390000000002</v>
-      </c>
-      <c r="H53" s="5">
-        <v>3.2200120000000001</v>
-      </c>
-      <c r="I53" s="5">
-        <v>3.2186490000000001</v>
-      </c>
-      <c r="J53" s="5">
-        <v>59.154471999999998</v>
-      </c>
-      <c r="K53" s="5">
-        <v>32.707447000000002</v>
-      </c>
-      <c r="L53" s="5">
-        <v>1.0011239999999999</v>
-      </c>
-      <c r="M53" s="5">
-        <v>0</v>
-      </c>
-      <c r="N53" s="13"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="15"/>
-      <c r="B54" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C54" s="4">
-        <v>700</v>
-      </c>
-      <c r="D54" s="5">
-        <v>43.223999999999997</v>
-      </c>
-      <c r="E54" s="5">
-        <v>43.285136000000001</v>
-      </c>
-      <c r="F54" s="5">
-        <v>43.163024999999998</v>
-      </c>
-      <c r="G54" s="5">
-        <v>3.2280540000000002</v>
-      </c>
-      <c r="H54" s="5">
-        <v>3.2203740000000001</v>
-      </c>
-      <c r="I54" s="5">
-        <v>3.235697</v>
-      </c>
-      <c r="J54" s="5">
-        <v>57.084159999999997</v>
-      </c>
-      <c r="K54" s="5">
-        <v>32.455140999999998</v>
-      </c>
-      <c r="L54" s="5">
-        <v>0.998552</v>
-      </c>
-      <c r="M54" s="5">
-        <v>0</v>
-      </c>
-      <c r="N54" s="13"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C55" s="4">
-        <v>600</v>
-      </c>
       <c r="D55" s="5">
-        <v>37.954000000000001</v>
+        <v>18.248000000000001</v>
       </c>
       <c r="E55" s="5">
-        <v>38.059941000000002</v>
+        <v>28.93</v>
       </c>
       <c r="F55" s="5">
-        <v>37.848415000000003</v>
+        <v>11.126666999999999</v>
       </c>
       <c r="G55" s="5">
-        <v>3.2384520000000001</v>
+        <v>2.6410119999999999</v>
       </c>
       <c r="H55" s="5">
-        <v>3.2413479999999999</v>
+        <v>2.8818069999999998</v>
       </c>
       <c r="I55" s="5">
-        <v>3.235576</v>
+        <v>2.5126400000000002</v>
       </c>
       <c r="J55" s="5">
-        <v>53.755561999999998</v>
+        <v>82.279906999999994</v>
       </c>
       <c r="K55" s="5">
-        <v>33.013896000000003</v>
+        <v>32.672423999999999</v>
       </c>
       <c r="L55" s="5">
-        <v>1.015622</v>
+        <v>0.95578300000000005</v>
       </c>
       <c r="M55" s="5">
-        <v>0</v>
-      </c>
-      <c r="N55" s="13"/>
+        <v>13.775532999999999</v>
+      </c>
+      <c r="N55" s="9">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="15"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="4">
         <v>50000</v>
       </c>
@@ -2729,239 +2748,249 @@
         <v>500</v>
       </c>
       <c r="D56" s="5">
-        <v>31.85</v>
+        <v>26.372</v>
       </c>
       <c r="E56" s="5">
-        <v>31.817819</v>
+        <v>37.283332999999999</v>
       </c>
       <c r="F56" s="5">
-        <v>31.882314999999998</v>
+        <v>10.005000000000001</v>
       </c>
       <c r="G56" s="5">
-        <v>3.258518</v>
+        <v>2.711957</v>
       </c>
       <c r="H56" s="5">
-        <v>3.2581519999999999</v>
+        <v>2.8743560000000001</v>
       </c>
       <c r="I56" s="5">
-        <v>3.2588849999999998</v>
+        <v>2.5421969999999998</v>
       </c>
       <c r="J56" s="5">
-        <v>49.598843000000002</v>
+        <v>83.875775000000004</v>
       </c>
       <c r="K56" s="5">
-        <v>32.068112999999997</v>
+        <v>33.717379999999999</v>
       </c>
       <c r="L56" s="5">
-        <v>0.99587300000000001</v>
+        <v>0.96965199999999996</v>
       </c>
       <c r="M56" s="5">
-        <v>0</v>
-      </c>
-      <c r="N56" s="13"/>
+        <v>13.534990000000001</v>
+      </c>
+      <c r="N56" s="9">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="15"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="4">
         <v>50000</v>
       </c>
       <c r="C57" s="4">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="D57" s="5">
-        <v>25.617999999999999</v>
+        <v>38.29</v>
       </c>
       <c r="E57" s="5">
-        <v>25.859300000000001</v>
+        <v>45.975000000000001</v>
       </c>
       <c r="F57" s="5">
-        <v>25.378546</v>
+        <v>7.55</v>
       </c>
       <c r="G57" s="5">
-        <v>3.2317629999999999</v>
+        <v>2.8104040000000001</v>
       </c>
       <c r="H57" s="5">
-        <v>3.233806</v>
+        <v>2.91106</v>
       </c>
       <c r="I57" s="5">
-        <v>3.2297479999999998</v>
+        <v>2.5751219999999999</v>
       </c>
       <c r="J57" s="5">
-        <v>43.070247999999999</v>
+        <v>84.146795999999995</v>
       </c>
       <c r="K57" s="5">
-        <v>31.834434999999999</v>
+        <v>34.732917</v>
       </c>
       <c r="L57" s="5">
-        <v>0.97465299999999999</v>
+        <v>0.99923600000000001</v>
       </c>
       <c r="M57" s="5">
-        <v>0</v>
-      </c>
-      <c r="N57" s="13"/>
+        <v>11.443212000000001</v>
+      </c>
+      <c r="N57" s="9">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="15"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="4">
         <v>50000</v>
       </c>
       <c r="C58" s="4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="D58" s="5">
-        <v>23.468</v>
+        <v>52.433999999999997</v>
       </c>
       <c r="E58" s="5">
-        <v>23.592752000000001</v>
+        <v>52.433999999999997</v>
       </c>
       <c r="F58" s="5">
-        <v>23.344351</v>
+        <v>0</v>
       </c>
       <c r="G58" s="5">
-        <v>3.147716</v>
+        <v>2.9932729999999999</v>
       </c>
       <c r="H58" s="5">
-        <v>3.1488670000000001</v>
-      </c>
-      <c r="I58" s="5">
-        <v>3.146579</v>
+        <v>2.9932729999999999</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J58" s="5">
-        <v>32.454777</v>
+        <v>83.694916000000006</v>
       </c>
       <c r="K58" s="5">
-        <v>31.363727999999998</v>
+        <v>35.576042000000001</v>
       </c>
       <c r="L58" s="5">
-        <v>0.932481</v>
+        <v>1.040764</v>
       </c>
       <c r="M58" s="5">
-        <v>0</v>
-      </c>
-      <c r="N58" s="13"/>
+        <v>7.115265</v>
+      </c>
+      <c r="N58" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="4">
+      <c r="A59" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2">
         <v>50000</v>
       </c>
       <c r="C59" s="4">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D59" s="5">
-        <v>23.175999999999998</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="E59" s="5">
-        <v>23.500281999999999</v>
+        <v>0</v>
       </c>
       <c r="F59" s="5">
-        <v>22.855893999999999</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="G59" s="5">
-        <v>3.0871209999999998</v>
-      </c>
-      <c r="H59" s="5">
-        <v>3.092285</v>
+        <v>2.3018130000000001</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I59" s="5">
-        <v>3.0820669999999999</v>
+        <v>2.3018130000000001</v>
       </c>
       <c r="J59" s="5">
-        <v>21.410388999999999</v>
-      </c>
-      <c r="K59" s="5">
-        <v>31.292809999999999</v>
-      </c>
-      <c r="L59" s="5">
-        <v>0.91200499999999995</v>
-      </c>
-      <c r="M59" s="5">
-        <v>0</v>
-      </c>
-      <c r="N59" s="13"/>
+        <v>66.785875000000004</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="6">
-        <v>50000</v>
-      </c>
-      <c r="C60" s="6">
-        <v>100</v>
+      <c r="A60" s="11"/>
+      <c r="B60" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C60" s="4">
+        <v>500</v>
       </c>
       <c r="D60" s="5">
-        <v>23.321999999999999</v>
+        <v>17.404</v>
       </c>
       <c r="E60" s="5">
-        <v>23.516932000000001</v>
+        <v>86.18</v>
       </c>
       <c r="F60" s="5">
-        <v>23.127348000000001</v>
+        <v>0.21</v>
       </c>
       <c r="G60" s="5">
-        <v>3.103485</v>
+        <v>2.2174200000000002</v>
       </c>
       <c r="H60" s="5">
-        <v>3.102894</v>
+        <v>2.8726479999999999</v>
       </c>
       <c r="I60" s="5">
-        <v>3.1040709999999998</v>
+        <v>2.194734</v>
       </c>
       <c r="J60" s="5">
-        <v>10.695992</v>
+        <v>56.161754999999999</v>
       </c>
       <c r="K60" s="5">
-        <v>31.263013000000001</v>
+        <v>0</v>
       </c>
       <c r="L60" s="5">
-        <v>0.91819799999999996</v>
+        <v>0</v>
       </c>
       <c r="M60" s="5">
         <v>0</v>
       </c>
-      <c r="N60" s="13"/>
+      <c r="N60" s="9">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C61" s="2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="4">
+        <v>50000</v>
+      </c>
+      <c r="C61" s="4">
         <v>500</v>
       </c>
       <c r="D61" s="5">
-        <v>2.3940000000000001</v>
+        <v>34.415999999999997</v>
       </c>
       <c r="E61" s="5">
-        <v>0</v>
+        <v>86.015000000000001</v>
       </c>
       <c r="F61" s="5">
-        <v>2.3940000000000001</v>
+        <v>1.6667000000000001E-2</v>
       </c>
       <c r="G61" s="5">
-        <v>2.2899409999999998</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>18</v>
+        <v>2.2217159999999998</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2.8693240000000002</v>
       </c>
       <c r="I61" s="5">
-        <v>2.2899409999999998</v>
+        <v>2.161327</v>
       </c>
       <c r="J61" s="5">
-        <v>66.274997999999997</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" s="5" t="s">
-        <v>18</v>
+        <v>47.539633000000002</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0</v>
       </c>
       <c r="N61" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -2973,37 +3002,37 @@
         <v>500</v>
       </c>
       <c r="D62" s="5">
-        <v>10.141999999999999</v>
+        <v>51.588000000000001</v>
       </c>
       <c r="E62" s="5">
-        <v>17.13</v>
+        <v>85.976667000000006</v>
       </c>
       <c r="F62" s="5">
-        <v>8.3949999999999996</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G62" s="5">
-        <v>2.5338310000000002</v>
+        <v>2.2803640000000001</v>
       </c>
       <c r="H62" s="5">
-        <v>2.954809</v>
+        <v>2.871048</v>
       </c>
       <c r="I62" s="5">
-        <v>2.4386220000000001</v>
+        <v>2.1561080000000001</v>
       </c>
       <c r="J62" s="5">
-        <v>77.994200000000006</v>
+        <v>40.264577000000003</v>
       </c>
       <c r="K62" s="5">
-        <v>31.517135</v>
+        <v>0</v>
       </c>
       <c r="L62" s="5">
-        <v>0.95330000000000004</v>
+        <v>0</v>
       </c>
       <c r="M62" s="5">
-        <v>11.152056999999999</v>
+        <v>0</v>
       </c>
       <c r="N62" s="9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
@@ -3015,37 +3044,37 @@
         <v>500</v>
       </c>
       <c r="D63" s="5">
-        <v>18.248000000000001</v>
+        <v>68.421999999999997</v>
       </c>
       <c r="E63" s="5">
-        <v>28.93</v>
+        <v>85.527500000000003</v>
       </c>
       <c r="F63" s="5">
-        <v>11.126666999999999</v>
+        <v>0</v>
       </c>
       <c r="G63" s="5">
-        <v>2.6410119999999999</v>
+        <v>2.409621</v>
       </c>
       <c r="H63" s="5">
-        <v>2.8818069999999998</v>
+        <v>2.854984</v>
       </c>
       <c r="I63" s="5">
-        <v>2.5126400000000002</v>
+        <v>2.1518000000000002</v>
       </c>
       <c r="J63" s="5">
-        <v>82.279906999999994</v>
+        <v>31.780996999999999</v>
       </c>
       <c r="K63" s="5">
-        <v>32.672423999999999</v>
+        <v>0</v>
       </c>
       <c r="L63" s="5">
-        <v>0.95578300000000005</v>
+        <v>0</v>
       </c>
       <c r="M63" s="5">
-        <v>13.775532999999999</v>
+        <v>0</v>
       </c>
       <c r="N63" s="9">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
@@ -3057,41 +3086,43 @@
         <v>500</v>
       </c>
       <c r="D64" s="5">
-        <v>26.372</v>
+        <v>85.658000000000001</v>
       </c>
       <c r="E64" s="5">
-        <v>37.283332999999999</v>
+        <v>85.658000000000001</v>
       </c>
       <c r="F64" s="5">
-        <v>10.005000000000001</v>
+        <v>0</v>
       </c>
       <c r="G64" s="5">
-        <v>2.711957</v>
+        <v>2.860061</v>
       </c>
       <c r="H64" s="5">
-        <v>2.8743560000000001</v>
-      </c>
-      <c r="I64" s="5">
-        <v>2.5421969999999998</v>
+        <v>2.860061</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J64" s="5">
-        <v>83.875775000000004</v>
+        <v>24.144099000000001</v>
       </c>
       <c r="K64" s="5">
-        <v>33.717379999999999</v>
+        <v>0</v>
       </c>
       <c r="L64" s="5">
-        <v>0.96965199999999996</v>
+        <v>0</v>
       </c>
       <c r="M64" s="5">
-        <v>13.534990000000001</v>
+        <v>0</v>
       </c>
       <c r="N64" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="B65" s="4">
         <v>50000</v>
       </c>
@@ -3099,40 +3130,37 @@
         <v>500</v>
       </c>
       <c r="D65" s="5">
-        <v>38.29</v>
+        <v>58.49</v>
       </c>
       <c r="E65" s="5">
-        <v>45.975000000000001</v>
+        <v>0</v>
       </c>
       <c r="F65" s="5">
-        <v>7.55</v>
+        <v>58.49</v>
       </c>
       <c r="G65" s="5">
-        <v>2.8104040000000001</v>
-      </c>
-      <c r="H65" s="5">
-        <v>2.91106</v>
+        <v>3.2798600000000002</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="I65" s="5">
-        <v>2.5751219999999999</v>
+        <v>3.2798600000000002</v>
       </c>
       <c r="J65" s="5">
-        <v>84.146795999999995</v>
-      </c>
-      <c r="K65" s="5">
-        <v>34.732917</v>
-      </c>
-      <c r="L65" s="5">
-        <v>0.99923600000000001</v>
-      </c>
-      <c r="M65" s="5">
-        <v>11.443212000000001</v>
-      </c>
-      <c r="N65" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+        <v>79.389567999999997</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="11"/>
       <c r="B66" s="4">
         <v>50000</v>
@@ -3141,84 +3169,76 @@
         <v>500</v>
       </c>
       <c r="D66" s="5">
-        <v>52.433999999999997</v>
+        <v>58.576000000000001</v>
       </c>
       <c r="E66" s="5">
-        <v>52.433999999999997</v>
+        <v>59.17</v>
       </c>
       <c r="F66" s="5">
-        <v>0</v>
+        <v>58.427500000000002</v>
       </c>
       <c r="G66" s="5">
-        <v>2.9932729999999999</v>
+        <v>3.2878769999999999</v>
       </c>
       <c r="H66" s="5">
-        <v>2.9932729999999999</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>18</v>
+        <v>3.2821449999999999</v>
+      </c>
+      <c r="I66" s="5">
+        <v>3.2892839999999999</v>
       </c>
       <c r="J66" s="5">
-        <v>83.694916000000006</v>
+        <v>79.171261999999999</v>
       </c>
       <c r="K66" s="5">
-        <v>35.576042000000001</v>
+        <v>40.395265999999999</v>
       </c>
       <c r="L66" s="5">
-        <v>1.040764</v>
+        <v>1.1950769999999999</v>
       </c>
       <c r="M66" s="5">
-        <v>7.115265</v>
-      </c>
-      <c r="N66" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="4">
         <v>50000</v>
       </c>
       <c r="C67" s="4">
         <v>500</v>
       </c>
       <c r="D67" s="5">
-        <v>2.7080000000000002</v>
+        <v>59.085999999999999</v>
       </c>
       <c r="E67" s="5">
-        <v>0</v>
+        <v>59.244999999999997</v>
       </c>
       <c r="F67" s="5">
-        <v>2.7080000000000002</v>
+        <v>58.98</v>
       </c>
       <c r="G67" s="5">
-        <v>2.3018130000000001</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>19</v>
+        <v>3.2897789999999998</v>
+      </c>
+      <c r="H67" s="5">
+        <v>3.2822969999999998</v>
       </c>
       <c r="I67" s="5">
-        <v>2.3018130000000001</v>
+        <v>3.2947340000000001</v>
       </c>
       <c r="J67" s="5">
-        <v>66.785875000000004</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N67" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+        <v>79.291482999999999</v>
+      </c>
+      <c r="K67" s="5">
+        <v>40.309857999999998</v>
+      </c>
+      <c r="L67" s="5">
+        <v>1.1926760000000001</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="4">
         <v>50000</v>
@@ -3227,40 +3247,37 @@
         <v>500</v>
       </c>
       <c r="D68" s="5">
-        <v>17.404</v>
+        <v>58.28</v>
       </c>
       <c r="E68" s="5">
-        <v>86.18</v>
+        <v>58.013333000000003</v>
       </c>
       <c r="F68" s="5">
-        <v>0.21</v>
+        <v>58.68</v>
       </c>
       <c r="G68" s="5">
-        <v>2.2174200000000002</v>
+        <v>3.283893</v>
       </c>
       <c r="H68" s="5">
-        <v>2.8726479999999999</v>
+        <v>3.2804060000000002</v>
       </c>
       <c r="I68" s="5">
-        <v>2.194734</v>
+        <v>3.2892060000000001</v>
       </c>
       <c r="J68" s="5">
-        <v>56.161754999999999</v>
+        <v>79.384073999999998</v>
       </c>
       <c r="K68" s="5">
-        <v>0</v>
+        <v>40.374467000000003</v>
       </c>
       <c r="L68" s="5">
-        <v>0</v>
+        <v>1.185416</v>
       </c>
       <c r="M68" s="5">
         <v>0</v>
       </c>
-      <c r="N68" s="9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="4">
         <v>50000</v>
@@ -3269,40 +3286,37 @@
         <v>500</v>
       </c>
       <c r="D69" s="5">
-        <v>34.415999999999997</v>
+        <v>59.048000000000002</v>
       </c>
       <c r="E69" s="5">
-        <v>86.015000000000001</v>
+        <v>59.22</v>
       </c>
       <c r="F69" s="5">
-        <v>1.6667000000000001E-2</v>
+        <v>58.36</v>
       </c>
       <c r="G69" s="5">
-        <v>2.2217159999999998</v>
+        <v>3.2860670000000001</v>
       </c>
       <c r="H69" s="5">
-        <v>2.8693240000000002</v>
+        <v>3.2879170000000002</v>
       </c>
       <c r="I69" s="5">
-        <v>2.161327</v>
+        <v>3.2788179999999998</v>
       </c>
       <c r="J69" s="5">
-        <v>47.539633000000002</v>
+        <v>78.959428000000003</v>
       </c>
       <c r="K69" s="5">
-        <v>0</v>
+        <v>39.780240999999997</v>
       </c>
       <c r="L69" s="5">
-        <v>0</v>
+        <v>1.1826570000000001</v>
       </c>
       <c r="M69" s="5">
         <v>0</v>
       </c>
-      <c r="N69" s="9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="4">
         <v>50000</v>
@@ -3311,372 +3325,49 @@
         <v>500</v>
       </c>
       <c r="D70" s="5">
-        <v>51.588000000000001</v>
+        <v>58.777999999999999</v>
       </c>
       <c r="E70" s="5">
-        <v>85.976667000000006</v>
+        <v>58.777999999999999</v>
       </c>
       <c r="F70" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G70" s="5">
-        <v>2.2803640000000001</v>
+        <v>3.2970989999999998</v>
       </c>
       <c r="H70" s="5">
-        <v>2.871048</v>
-      </c>
-      <c r="I70" s="5">
-        <v>2.1561080000000001</v>
+        <v>3.2970989999999998</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="J70" s="5">
-        <v>40.264577000000003</v>
+        <v>79.715316000000001</v>
       </c>
       <c r="K70" s="5">
-        <v>0</v>
+        <v>40.038564000000001</v>
       </c>
       <c r="L70" s="5">
-        <v>0</v>
+        <v>1.197322</v>
       </c>
       <c r="M70" s="5">
-        <v>0</v>
-      </c>
-      <c r="N70" s="9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C71" s="4">
-        <v>500</v>
-      </c>
-      <c r="D71" s="5">
-        <v>68.421999999999997</v>
-      </c>
-      <c r="E71" s="5">
-        <v>85.527500000000003</v>
-      </c>
-      <c r="F71" s="5">
-        <v>0</v>
-      </c>
-      <c r="G71" s="5">
-        <v>2.409621</v>
-      </c>
-      <c r="H71" s="5">
-        <v>2.854984</v>
-      </c>
-      <c r="I71" s="5">
-        <v>2.1518000000000002</v>
-      </c>
-      <c r="J71" s="5">
-        <v>31.780996999999999</v>
-      </c>
-      <c r="K71" s="5">
-        <v>0</v>
-      </c>
-      <c r="L71" s="5">
-        <v>0</v>
-      </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C72" s="4">
-        <v>500</v>
-      </c>
-      <c r="D72" s="5">
-        <v>85.658000000000001</v>
-      </c>
-      <c r="E72" s="5">
-        <v>85.658000000000001</v>
-      </c>
-      <c r="F72" s="5">
-        <v>0</v>
-      </c>
-      <c r="G72" s="5">
-        <v>2.860061</v>
-      </c>
-      <c r="H72" s="5">
-        <v>2.860061</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" s="5">
-        <v>24.144099000000001</v>
-      </c>
-      <c r="K72" s="5">
-        <v>0</v>
-      </c>
-      <c r="L72" s="5">
-        <v>0</v>
-      </c>
-      <c r="M72" s="5">
-        <v>0</v>
-      </c>
-      <c r="N72" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C73" s="4">
-        <v>500</v>
-      </c>
-      <c r="D73" s="5">
-        <v>58.49</v>
-      </c>
-      <c r="E73" s="5">
-        <v>0</v>
-      </c>
-      <c r="F73" s="5">
-        <v>58.49</v>
-      </c>
-      <c r="G73" s="5">
-        <v>3.2798600000000002</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I73" s="5">
-        <v>3.2798600000000002</v>
-      </c>
-      <c r="J73" s="5">
-        <v>79.389567999999997</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C74" s="4">
-        <v>500</v>
-      </c>
-      <c r="D74" s="5">
-        <v>58.576000000000001</v>
-      </c>
-      <c r="E74" s="5">
-        <v>59.17</v>
-      </c>
-      <c r="F74" s="5">
-        <v>58.427500000000002</v>
-      </c>
-      <c r="G74" s="5">
-        <v>3.2878769999999999</v>
-      </c>
-      <c r="H74" s="5">
-        <v>3.2821449999999999</v>
-      </c>
-      <c r="I74" s="5">
-        <v>3.2892839999999999</v>
-      </c>
-      <c r="J74" s="5">
-        <v>79.171261999999999</v>
-      </c>
-      <c r="K74" s="5">
-        <v>40.395265999999999</v>
-      </c>
-      <c r="L74" s="5">
-        <v>1.1950769999999999</v>
-      </c>
-      <c r="M74" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="11"/>
-      <c r="B75" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C75" s="4">
-        <v>500</v>
-      </c>
-      <c r="D75" s="5">
-        <v>59.085999999999999</v>
-      </c>
-      <c r="E75" s="5">
-        <v>59.244999999999997</v>
-      </c>
-      <c r="F75" s="5">
-        <v>58.98</v>
-      </c>
-      <c r="G75" s="5">
-        <v>3.2897789999999998</v>
-      </c>
-      <c r="H75" s="5">
-        <v>3.2822969999999998</v>
-      </c>
-      <c r="I75" s="5">
-        <v>3.2947340000000001</v>
-      </c>
-      <c r="J75" s="5">
-        <v>79.291482999999999</v>
-      </c>
-      <c r="K75" s="5">
-        <v>40.309857999999998</v>
-      </c>
-      <c r="L75" s="5">
-        <v>1.1926760000000001</v>
-      </c>
-      <c r="M75" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C76" s="4">
-        <v>500</v>
-      </c>
-      <c r="D76" s="5">
-        <v>58.28</v>
-      </c>
-      <c r="E76" s="5">
-        <v>58.013333000000003</v>
-      </c>
-      <c r="F76" s="5">
-        <v>58.68</v>
-      </c>
-      <c r="G76" s="5">
-        <v>3.283893</v>
-      </c>
-      <c r="H76" s="5">
-        <v>3.2804060000000002</v>
-      </c>
-      <c r="I76" s="5">
-        <v>3.2892060000000001</v>
-      </c>
-      <c r="J76" s="5">
-        <v>79.384073999999998</v>
-      </c>
-      <c r="K76" s="5">
-        <v>40.374467000000003</v>
-      </c>
-      <c r="L76" s="5">
-        <v>1.185416</v>
-      </c>
-      <c r="M76" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="11"/>
-      <c r="B77" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C77" s="4">
-        <v>500</v>
-      </c>
-      <c r="D77" s="5">
-        <v>59.048000000000002</v>
-      </c>
-      <c r="E77" s="5">
-        <v>59.22</v>
-      </c>
-      <c r="F77" s="5">
-        <v>58.36</v>
-      </c>
-      <c r="G77" s="5">
-        <v>3.2860670000000001</v>
-      </c>
-      <c r="H77" s="5">
-        <v>3.2879170000000002</v>
-      </c>
-      <c r="I77" s="5">
-        <v>3.2788179999999998</v>
-      </c>
-      <c r="J77" s="5">
-        <v>78.959428000000003</v>
-      </c>
-      <c r="K77" s="5">
-        <v>39.780240999999997</v>
-      </c>
-      <c r="L77" s="5">
-        <v>1.1826570000000001</v>
-      </c>
-      <c r="M77" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="4">
-        <v>50000</v>
-      </c>
-      <c r="C78" s="4">
-        <v>500</v>
-      </c>
-      <c r="D78" s="5">
-        <v>58.777999999999999</v>
-      </c>
-      <c r="E78" s="5">
-        <v>58.777999999999999</v>
-      </c>
-      <c r="F78" s="5">
-        <v>0</v>
-      </c>
-      <c r="G78" s="5">
-        <v>3.2970989999999998</v>
-      </c>
-      <c r="H78" s="5">
-        <v>3.2970989999999998</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J78" s="5">
-        <v>79.715316000000001</v>
-      </c>
-      <c r="K78" s="5">
-        <v>40.038564000000001</v>
-      </c>
-      <c r="L78" s="5">
-        <v>1.197322</v>
-      </c>
-      <c r="M78" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="N33:N60"/>
+    <mergeCell ref="N33:N52"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
     <mergeCell ref="N2:N28"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="A29:A41"/>
-    <mergeCell ref="A61:A66"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="A42:A50"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program\JAVA\20231120-SecureOpticalNetworkSimulator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787D3983-0DE9-4B6D-87BB-528FA45FBE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA7CDE0-F1E9-4422-951A-A8A11298E4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="2235" windowWidth="20895" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +208,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,13 +220,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -507,8 +503,8 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,7 +554,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
@@ -597,12 +593,12 @@
       <c r="M2" s="3">
         <v>21.552382000000001</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4">
         <v>50000</v>
       </c>
@@ -639,10 +635,10 @@
       <c r="M3" s="5">
         <v>20.353908000000001</v>
       </c>
-      <c r="N3" s="13"/>
+      <c r="N3" s="10"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4">
         <v>50000</v>
       </c>
@@ -679,10 +675,10 @@
       <c r="M4" s="5">
         <v>18.329294999999998</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4">
         <v>50000</v>
       </c>
@@ -719,10 +715,10 @@
       <c r="M5" s="5">
         <v>16.109870999999998</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4">
         <v>50000</v>
       </c>
@@ -759,10 +755,10 @@
       <c r="M6" s="5">
         <v>13.779595</v>
       </c>
-      <c r="N6" s="13"/>
+      <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4">
         <v>50000</v>
       </c>
@@ -799,10 +795,10 @@
       <c r="M7" s="5">
         <v>9.9934440000000002</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4">
         <v>50000</v>
       </c>
@@ -839,10 +835,10 @@
       <c r="M8" s="5">
         <v>5.7622980000000004</v>
       </c>
-      <c r="N8" s="13"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4">
         <v>50000</v>
       </c>
@@ -879,10 +875,10 @@
       <c r="M9" s="5">
         <v>2.2862909999999999</v>
       </c>
-      <c r="N9" s="13"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6">
         <v>50000</v>
       </c>
@@ -919,10 +915,10 @@
       <c r="M10" s="7">
         <v>2.2348979999999998</v>
       </c>
-      <c r="N10" s="13"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="2">
@@ -961,10 +957,10 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="13"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4">
         <v>50000</v>
       </c>
@@ -1001,10 +997,10 @@
       <c r="M12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" s="13"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="4">
         <v>50000</v>
       </c>
@@ -1041,10 +1037,10 @@
       <c r="M13" s="5">
         <v>0</v>
       </c>
-      <c r="N13" s="13"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4">
         <v>50000</v>
       </c>
@@ -1081,10 +1077,10 @@
       <c r="M14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" s="13"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4">
         <v>50000</v>
       </c>
@@ -1121,10 +1117,10 @@
       <c r="M15" s="5">
         <v>0</v>
       </c>
-      <c r="N15" s="13"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4">
         <v>50000</v>
       </c>
@@ -1161,10 +1157,10 @@
       <c r="M16" s="5">
         <v>0</v>
       </c>
-      <c r="N16" s="13"/>
+      <c r="N16" s="10"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4">
         <v>50000</v>
       </c>
@@ -1201,10 +1197,10 @@
       <c r="M17" s="5">
         <v>0</v>
       </c>
-      <c r="N17" s="13"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4">
         <v>50000</v>
       </c>
@@ -1241,10 +1237,10 @@
       <c r="M18" s="5">
         <v>0</v>
       </c>
-      <c r="N18" s="13"/>
+      <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="6">
         <v>50000</v>
       </c>
@@ -1281,10 +1277,10 @@
       <c r="M19" s="7">
         <v>0</v>
       </c>
-      <c r="N19" s="13"/>
+      <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="2">
@@ -1323,10 +1319,10 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="13"/>
+      <c r="N20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4">
         <v>50000</v>
       </c>
@@ -1363,10 +1359,10 @@
       <c r="M21" s="5">
         <v>0</v>
       </c>
-      <c r="N21" s="13"/>
+      <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="4">
         <v>50000</v>
       </c>
@@ -1403,10 +1399,10 @@
       <c r="M22" s="5">
         <v>0</v>
       </c>
-      <c r="N22" s="13"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="4">
         <v>50000</v>
       </c>
@@ -1443,10 +1439,10 @@
       <c r="M23" s="5">
         <v>0</v>
       </c>
-      <c r="N23" s="13"/>
+      <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="4">
         <v>50000</v>
       </c>
@@ -1483,10 +1479,10 @@
       <c r="M24" s="5">
         <v>0</v>
       </c>
-      <c r="N24" s="13"/>
+      <c r="N24" s="10"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="4">
         <v>50000</v>
       </c>
@@ -1523,10 +1519,10 @@
       <c r="M25" s="5">
         <v>0</v>
       </c>
-      <c r="N25" s="13"/>
+      <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="4">
         <v>50000</v>
       </c>
@@ -1563,10 +1559,10 @@
       <c r="M26" s="5">
         <v>0</v>
       </c>
-      <c r="N26" s="13"/>
+      <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="4">
         <v>50000</v>
       </c>
@@ -1603,10 +1599,10 @@
       <c r="M27" s="5">
         <v>0</v>
       </c>
-      <c r="N27" s="13"/>
+      <c r="N27" s="10"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="6">
         <v>50000</v>
       </c>
@@ -1643,10 +1639,10 @@
       <c r="M28" s="7">
         <v>0</v>
       </c>
-      <c r="N28" s="13"/>
+      <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="4">
@@ -1655,160 +1651,160 @@
       <c r="C29" s="4">
         <v>1600</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="5">
         <v>32.548000000000002</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="5">
         <v>43.588000000000001</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="5">
         <v>21.507999999999999</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="5">
         <v>2.6956060000000002</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="5">
         <v>2.7499820000000001</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="5">
         <v>2.6565259999999999</v>
       </c>
-      <c r="J29" s="15">
+      <c r="J29" s="5">
         <v>83.281790000000001</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="5">
         <v>30.654993999999999</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="5">
         <v>0.85538499999999995</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="5">
         <v>8.3164510000000007</v>
       </c>
       <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="4">
         <v>50000</v>
       </c>
       <c r="C30" s="4">
         <v>1400</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="5">
         <v>28.443999999999999</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="5">
         <v>39.003999999999998</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="5">
         <v>17.884</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="5">
         <v>2.7326709999999999</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="5">
         <v>2.797069</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="5">
         <v>2.6848359999999998</v>
       </c>
-      <c r="J30" s="15">
+      <c r="J30" s="5">
         <v>80.488788</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="5">
         <v>30.191707000000001</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="5">
         <v>0.85661399999999999</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="5">
         <v>7.3143890000000003</v>
       </c>
       <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="4">
         <v>50000</v>
       </c>
       <c r="C31" s="4">
         <v>1200</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="5">
         <v>23.981999999999999</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="5">
         <v>33.932000000000002</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="5">
         <v>14.032</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="5">
         <v>2.7625690000000001</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="5">
         <v>2.8719800000000002</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="5">
         <v>2.6784849999999998</v>
       </c>
-      <c r="J31" s="15">
+      <c r="J31" s="5">
         <v>77.048519999999996</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="5">
         <v>29.790973000000001</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="5">
         <v>0.86377700000000002</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="5">
         <v>6.6983579999999998</v>
       </c>
       <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="4">
         <v>50000</v>
       </c>
       <c r="C32" s="4">
         <v>1000</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="5">
         <v>18.068000000000001</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="5">
         <v>27.056000000000001</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="5">
         <v>9.08</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="5">
         <v>2.7934380000000001</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="5">
         <v>2.951689</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="5">
         <v>2.6664759999999998</v>
       </c>
-      <c r="J32" s="15">
+      <c r="J32" s="5">
         <v>72.155029999999996</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="5">
         <v>29.064741999999999</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="5">
         <v>0.86910500000000002</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="5">
         <v>5.5786369999999996</v>
       </c>
       <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="4">
         <v>50000</v>
       </c>
@@ -1845,10 +1841,10 @@
       <c r="M33" s="5">
         <v>4.4108470000000004</v>
       </c>
-      <c r="N33" s="13"/>
+      <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="4">
         <v>50000</v>
       </c>
@@ -1885,10 +1881,10 @@
       <c r="M34" s="5">
         <v>2.8338570000000001</v>
       </c>
-      <c r="N34" s="13"/>
+      <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="4">
         <v>50000</v>
       </c>
@@ -1925,10 +1921,10 @@
       <c r="M35" s="5">
         <v>1.647578</v>
       </c>
-      <c r="N35" s="13"/>
+      <c r="N35" s="10"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="4">
         <v>50000</v>
       </c>
@@ -1965,10 +1961,10 @@
       <c r="M36" s="5">
         <v>1.2340960000000001</v>
       </c>
-      <c r="N36" s="13"/>
+      <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="4">
@@ -2007,10 +2003,10 @@
       <c r="M37" s="5">
         <v>0</v>
       </c>
-      <c r="N37" s="13"/>
+      <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="4">
         <v>50000</v>
       </c>
@@ -2047,10 +2043,10 @@
       <c r="M38" s="5">
         <v>0</v>
       </c>
-      <c r="N38" s="13"/>
+      <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="4">
         <v>50000</v>
       </c>
@@ -2087,10 +2083,10 @@
       <c r="M39" s="5">
         <v>0</v>
       </c>
-      <c r="N39" s="13"/>
+      <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="4">
         <v>50000</v>
       </c>
@@ -2127,10 +2123,10 @@
       <c r="M40" s="5">
         <v>0</v>
       </c>
-      <c r="N40" s="13"/>
+      <c r="N40" s="10"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="14"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="4">
         <v>50000</v>
       </c>
@@ -2167,10 +2163,10 @@
       <c r="M41" s="5">
         <v>0</v>
       </c>
-      <c r="N41" s="13"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="4">
         <v>50000</v>
       </c>
@@ -2207,10 +2203,10 @@
       <c r="M42" s="5">
         <v>0</v>
       </c>
-      <c r="N42" s="13"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="4">
         <v>50000</v>
       </c>
@@ -2247,10 +2243,10 @@
       <c r="M43" s="5">
         <v>0</v>
       </c>
-      <c r="N43" s="13"/>
+      <c r="N43" s="10"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="4">
         <v>50000</v>
       </c>
@@ -2287,10 +2283,10 @@
       <c r="M44" s="5">
         <v>0</v>
       </c>
-      <c r="N44" s="13"/>
+      <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B45" s="4">
@@ -2329,10 +2325,10 @@
       <c r="M45" s="5">
         <v>0</v>
       </c>
-      <c r="N45" s="13"/>
+      <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="4">
         <v>50000</v>
       </c>
@@ -2369,10 +2365,10 @@
       <c r="M46" s="5">
         <v>0</v>
       </c>
-      <c r="N46" s="13"/>
+      <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="4">
         <v>50000</v>
       </c>
@@ -2409,10 +2405,10 @@
       <c r="M47" s="5">
         <v>0</v>
       </c>
-      <c r="N47" s="13"/>
+      <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="4">
         <v>50000</v>
       </c>
@@ -2449,10 +2445,10 @@
       <c r="M48" s="5">
         <v>0</v>
       </c>
-      <c r="N48" s="13"/>
+      <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="4">
         <v>50000</v>
       </c>
@@ -2489,10 +2485,10 @@
       <c r="M49" s="5">
         <v>0</v>
       </c>
-      <c r="N49" s="13"/>
+      <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="14"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="4">
         <v>50000</v>
       </c>
@@ -2529,10 +2525,10 @@
       <c r="M50" s="5">
         <v>0</v>
       </c>
-      <c r="N50" s="13"/>
+      <c r="N50" s="10"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="14"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="4">
         <v>50000</v>
       </c>
@@ -2569,10 +2565,10 @@
       <c r="M51" s="5">
         <v>0</v>
       </c>
-      <c r="N51" s="13"/>
+      <c r="N51" s="10"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="4">
         <v>50000</v>
       </c>
@@ -2609,10 +2605,10 @@
       <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="13"/>
+      <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="2">
@@ -2656,7 +2652,7 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="4">
         <v>50000</v>
       </c>
@@ -2698,7 +2694,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="4">
         <v>50000</v>
       </c>
@@ -2740,7 +2736,7 @@
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="4">
         <v>50000</v>
       </c>
@@ -2782,7 +2778,7 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="4">
         <v>50000</v>
       </c>
@@ -2824,7 +2820,7 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="4">
         <v>50000</v>
       </c>
@@ -2866,7 +2862,7 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B59" s="2">
@@ -2910,7 +2906,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="4">
         <v>50000</v>
       </c>
@@ -2952,7 +2948,7 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="4">
         <v>50000</v>
       </c>
@@ -2994,7 +2990,7 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="4">
         <v>50000</v>
       </c>
@@ -3036,7 +3032,7 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="4">
         <v>50000</v>
       </c>
@@ -3078,7 +3074,7 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="4">
         <v>50000</v>
       </c>
@@ -3120,7 +3116,7 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B65" s="4">
@@ -3161,7 +3157,7 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="4">
         <v>50000</v>
       </c>
@@ -3200,7 +3196,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="4">
         <v>50000</v>
       </c>
@@ -3239,7 +3235,7 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="4">
         <v>50000</v>
       </c>
@@ -3278,7 +3274,7 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="11"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="4">
         <v>50000</v>
       </c>
@@ -3317,7 +3313,7 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="4">
         <v>50000</v>
       </c>
@@ -3357,6 +3353,9 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A65:A70"/>
     <mergeCell ref="N33:N52"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A2:A10"/>
@@ -3365,9 +3364,6 @@
     <mergeCell ref="A29:A36"/>
     <mergeCell ref="A45:A52"/>
     <mergeCell ref="A37:A44"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A64"/>
-    <mergeCell ref="A65:A70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
